--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4702,28 +4702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.9406693576367</v>
+        <v>451.598695684511</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.8989091210547</v>
+        <v>617.8972585638987</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.3675044611037</v>
+        <v>558.9260114308086</v>
       </c>
       <c r="AD2" t="n">
-        <v>409940.6693576367</v>
+        <v>451598.695684511</v>
       </c>
       <c r="AE2" t="n">
-        <v>560898.9091210547</v>
+        <v>617897.2585638987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.233035425693762e-06</v>
+        <v>3.77505718187001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.073350694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>507367.5044611037</v>
+        <v>558926.0114308086</v>
       </c>
     </row>
     <row r="3">
@@ -4808,28 +4808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.8315329186142</v>
+        <v>239.0749855323563</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.3642722192419</v>
+        <v>327.1129424491916</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.2249451864837</v>
+        <v>295.8937423278361</v>
       </c>
       <c r="AD3" t="n">
-        <v>207831.5329186142</v>
+        <v>239074.9855323563</v>
       </c>
       <c r="AE3" t="n">
-        <v>284364.2722192418</v>
+        <v>327112.9424491916</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.43848428554793e-06</v>
+        <v>5.812928289246508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>257224.9451864837</v>
+        <v>295893.7423278361</v>
       </c>
     </row>
     <row r="4">
@@ -4914,28 +4914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.5841321934932</v>
+        <v>201.4131901112056</v>
       </c>
       <c r="AB4" t="n">
-        <v>247.0831764766678</v>
+        <v>275.5824124328494</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.5019048972225</v>
+        <v>249.2812137726841</v>
       </c>
       <c r="AD4" t="n">
-        <v>180584.1321934932</v>
+        <v>201413.1901112056</v>
       </c>
       <c r="AE4" t="n">
-        <v>247083.1764766678</v>
+        <v>275582.4124328493</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.886267782710086e-06</v>
+        <v>6.56992850851517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.212673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>223501.9048972226</v>
+        <v>249281.2137726841</v>
       </c>
     </row>
     <row r="5">
@@ -5020,28 +5020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.185654052079</v>
+        <v>189.3437658112495</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.436590532485</v>
+        <v>259.0684936402371</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.7801861027893</v>
+        <v>234.3433602122029</v>
       </c>
       <c r="AD5" t="n">
-        <v>158185.654052079</v>
+        <v>189343.7658112495</v>
       </c>
       <c r="AE5" t="n">
-        <v>216436.590532485</v>
+        <v>259068.4936402371</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.127432247507802e-06</v>
+        <v>6.977629001920289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.908854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>195780.1861027893</v>
+        <v>234343.3602122029</v>
       </c>
     </row>
     <row r="6">
@@ -5126,28 +5126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.5477297519509</v>
+        <v>182.7058415111214</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.354289660502</v>
+        <v>249.9861927682541</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.5646872789362</v>
+        <v>226.1278613883498</v>
       </c>
       <c r="AD6" t="n">
-        <v>151547.7297519509</v>
+        <v>182705.8415111214</v>
       </c>
       <c r="AE6" t="n">
-        <v>207354.2896605021</v>
+        <v>249986.1927682541</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.272056233559549e-06</v>
+        <v>7.22212302603354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.743923611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>187564.6872789362</v>
+        <v>226127.8613883498</v>
       </c>
     </row>
     <row r="7">
@@ -5232,28 +5232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>146.9884536512416</v>
+        <v>178.146565410412</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.1160869584489</v>
+        <v>243.747990066201</v>
       </c>
       <c r="AC7" t="n">
-        <v>181.9218498873925</v>
+        <v>220.4850239968061</v>
       </c>
       <c r="AD7" t="n">
-        <v>146988.4536512416</v>
+        <v>178146.565410412</v>
       </c>
       <c r="AE7" t="n">
-        <v>201116.0869584489</v>
+        <v>243747.990066201</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.378493511867486e-06</v>
+        <v>7.40206052602651e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>181921.8498873925</v>
+        <v>220485.0239968062</v>
       </c>
     </row>
     <row r="8">
@@ -5338,28 +5338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.8116953195932</v>
+        <v>164.7260045833262</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.7695060604034</v>
+        <v>225.3853866692342</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.9901005697905</v>
+        <v>203.8749216959643</v>
       </c>
       <c r="AD8" t="n">
-        <v>143811.6953195932</v>
+        <v>164726.0045833262</v>
       </c>
       <c r="AE8" t="n">
-        <v>196769.5060604035</v>
+        <v>225385.3866692342</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.446650716398005e-06</v>
+        <v>7.517283661986917e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>177990.1005697905</v>
+        <v>203874.9216959643</v>
       </c>
     </row>
     <row r="9">
@@ -5444,28 +5444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.6970753770273</v>
+        <v>161.4407924401681</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.5079456476527</v>
+        <v>220.8904144816366</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.1352575016937</v>
+        <v>199.8089433452164</v>
       </c>
       <c r="AD9" t="n">
-        <v>140697.0753770273</v>
+        <v>161440.7924401681</v>
       </c>
       <c r="AE9" t="n">
-        <v>192507.9456476527</v>
+        <v>220890.4144816366</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.514807920928525e-06</v>
+        <v>7.632506797947327e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>174135.2575016937</v>
+        <v>199808.9433452165</v>
       </c>
     </row>
     <row r="10">
@@ -5550,28 +5550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.5313418937011</v>
+        <v>159.2750589568419</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.5446935503492</v>
+        <v>217.9271623843331</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.4548140256055</v>
+        <v>197.1284998691283</v>
       </c>
       <c r="AD10" t="n">
-        <v>138531.3418937011</v>
+        <v>159275.0589568419</v>
       </c>
       <c r="AE10" t="n">
-        <v>189544.6935503492</v>
+        <v>217927.1623843331</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.54767276475694e-06</v>
+        <v>7.688066447067963e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.455295138888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>171454.8140256055</v>
+        <v>197128.4998691283</v>
       </c>
     </row>
     <row r="11">
@@ -5656,28 +5656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>136.6796257035942</v>
+        <v>157.4233427667349</v>
       </c>
       <c r="AB11" t="n">
-        <v>187.0110937670934</v>
+        <v>215.3935626010773</v>
       </c>
       <c r="AC11" t="n">
-        <v>169.1630174497332</v>
+        <v>194.836703293256</v>
       </c>
       <c r="AD11" t="n">
-        <v>136679.6257035942</v>
+        <v>157423.3427667349</v>
       </c>
       <c r="AE11" t="n">
-        <v>187011.0937670934</v>
+        <v>215393.5626010773</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.580070778417337e-06</v>
+        <v>7.742836896627224e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.424913194444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>169163.0174497332</v>
+        <v>194836.703293256</v>
       </c>
     </row>
     <row r="12">
@@ -5762,28 +5762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>134.9372769189403</v>
+        <v>155.680993982081</v>
       </c>
       <c r="AB12" t="n">
-        <v>184.6271352929278</v>
+        <v>213.0096041269117</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.0065806264344</v>
+        <v>192.6802664699572</v>
       </c>
       <c r="AD12" t="n">
-        <v>134937.2769189402</v>
+        <v>155680.993982081</v>
       </c>
       <c r="AE12" t="n">
-        <v>184627.1352929278</v>
+        <v>213009.6041269117</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.61368255051458e-06</v>
+        <v>7.799659265046056e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>167006.5806264344</v>
+        <v>192680.2664699572</v>
       </c>
     </row>
     <row r="13">
@@ -5868,28 +5868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>132.8551473162407</v>
+        <v>153.5988643793815</v>
       </c>
       <c r="AB13" t="n">
-        <v>181.7782737134406</v>
+        <v>210.1607425474245</v>
       </c>
       <c r="AC13" t="n">
-        <v>164.4296103976903</v>
+        <v>190.103296241213</v>
       </c>
       <c r="AD13" t="n">
-        <v>132855.1473162407</v>
+        <v>153598.8643793815</v>
       </c>
       <c r="AE13" t="n">
-        <v>181778.2737134406</v>
+        <v>210160.7425474245</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.630955266731218e-06</v>
+        <v>7.828859648816845e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH13" t="n">
-        <v>164429.6103976903</v>
+        <v>190103.296241213</v>
       </c>
     </row>
     <row r="14">
@@ -5974,28 +5974,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>131.0117839970549</v>
+        <v>151.7555010601957</v>
       </c>
       <c r="AB14" t="n">
-        <v>179.2561026966817</v>
+        <v>207.6385715306656</v>
       </c>
       <c r="AC14" t="n">
-        <v>162.1481518428808</v>
+        <v>187.8218376864035</v>
       </c>
       <c r="AD14" t="n">
-        <v>131011.7839970549</v>
+        <v>151755.5010601957</v>
       </c>
       <c r="AE14" t="n">
-        <v>179256.1026966817</v>
+        <v>207638.5715306656</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.666247627433324e-06</v>
+        <v>7.88852313565662e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>162148.1518428808</v>
+        <v>187821.8376864035</v>
       </c>
     </row>
     <row r="15">
@@ -6080,28 +6080,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>129.3813209251292</v>
+        <v>150.12503798827</v>
       </c>
       <c r="AB15" t="n">
-        <v>177.0252311907199</v>
+        <v>205.4077000247038</v>
       </c>
       <c r="AC15" t="n">
-        <v>160.1301915823995</v>
+        <v>185.8038774259223</v>
       </c>
       <c r="AD15" t="n">
-        <v>129381.3209251292</v>
+        <v>150125.03798827</v>
       </c>
       <c r="AE15" t="n">
-        <v>177025.2311907199</v>
+        <v>205407.7000247038</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.685107566221221e-06</v>
+        <v>7.920406797936074e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.325086805555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>160130.1915823995</v>
+        <v>185803.8774259223</v>
       </c>
     </row>
     <row r="16">
@@ -6186,28 +6186,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>128.9053151759567</v>
+        <v>149.6490322390975</v>
       </c>
       <c r="AB16" t="n">
-        <v>176.373939124811</v>
+        <v>204.7564079587949</v>
       </c>
       <c r="AC16" t="n">
-        <v>159.5410579171665</v>
+        <v>185.2147437606893</v>
       </c>
       <c r="AD16" t="n">
-        <v>128905.3151759567</v>
+        <v>149649.0322390975</v>
       </c>
       <c r="AE16" t="n">
-        <v>176373.939124811</v>
+        <v>204756.4079587949</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.680625996608256e-06</v>
+        <v>7.912830482146897e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>159541.0579171665</v>
+        <v>185214.7437606892</v>
       </c>
     </row>
     <row r="17">
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>128.227918150336</v>
+        <v>148.9716352134767</v>
       </c>
       <c r="AB17" t="n">
-        <v>175.4470946297095</v>
+        <v>203.8295634636934</v>
       </c>
       <c r="AC17" t="n">
-        <v>158.7026701598428</v>
+        <v>184.3763560033655</v>
       </c>
       <c r="AD17" t="n">
-        <v>128227.918150336</v>
+        <v>148971.6352134767</v>
       </c>
       <c r="AE17" t="n">
-        <v>175447.0946297095</v>
+        <v>203829.5634636934</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.699205837295342e-06</v>
+        <v>7.944240624689528e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.312065972222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>158702.6701598428</v>
+        <v>184376.3560033655</v>
       </c>
     </row>
     <row r="18">
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>128.44380237359</v>
+        <v>149.1875194367308</v>
       </c>
       <c r="AB18" t="n">
-        <v>175.7424769481053</v>
+        <v>204.1249457820892</v>
       </c>
       <c r="AC18" t="n">
-        <v>158.9698616043427</v>
+        <v>184.6435474478654</v>
       </c>
       <c r="AD18" t="n">
-        <v>128443.80237359</v>
+        <v>149187.5194367308</v>
       </c>
       <c r="AE18" t="n">
-        <v>175742.4769481053</v>
+        <v>204124.9457820892</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.701446622101825e-06</v>
+        <v>7.948028782584119e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>158969.8616043427</v>
+        <v>184643.5474478655</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.3600529494495</v>
+        <v>330.7223243248901</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.283434226905</v>
+        <v>452.5088745805232</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.3672608550904</v>
+        <v>409.3220626907516</v>
       </c>
       <c r="AD2" t="n">
-        <v>290360.0529494495</v>
+        <v>330722.32432489</v>
       </c>
       <c r="AE2" t="n">
-        <v>397283.434226905</v>
+        <v>452508.8745805232</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.731447993395877e-06</v>
+        <v>4.730297072370722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.673611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>359367.2608550903</v>
+        <v>409322.0626907516</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.582801834453</v>
+        <v>205.6839131654408</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.2401356363092</v>
+        <v>281.4258041266548</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.3119542703975</v>
+        <v>254.5669203644864</v>
       </c>
       <c r="AD3" t="n">
-        <v>175582.801834453</v>
+        <v>205683.9131654408</v>
       </c>
       <c r="AE3" t="n">
-        <v>240240.1356363092</v>
+        <v>281425.8041266548</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.850684886870821e-06</v>
+        <v>6.668581459733944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.442708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>217311.9542703975</v>
+        <v>254566.9203644863</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.3213401867311</v>
+        <v>176.5077028637395</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.2033128853372</v>
+        <v>241.505626028332</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.0961896907318</v>
+        <v>218.4566680355329</v>
       </c>
       <c r="AD4" t="n">
-        <v>146321.3401867311</v>
+        <v>176507.7028637395</v>
       </c>
       <c r="AE4" t="n">
-        <v>200203.3128853372</v>
+        <v>241505.626028332</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.263686004967029e-06</v>
+        <v>7.383813082133421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.915364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>181096.1896907318</v>
+        <v>218456.6680355329</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.0296480433166</v>
+        <v>168.216010720325</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.858253891083</v>
+        <v>230.1605670340777</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.8338872039953</v>
+        <v>208.1943655487964</v>
       </c>
       <c r="AD5" t="n">
-        <v>138029.6480433166</v>
+        <v>168216.010720325</v>
       </c>
       <c r="AE5" t="n">
-        <v>188858.253891083</v>
+        <v>230160.5670340777</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.470283149870629e-06</v>
+        <v>7.741596159849155e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.689670138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>170833.8872039953</v>
+        <v>208194.3655487964</v>
       </c>
     </row>
     <row r="6">
@@ -7119,28 +7119,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.857762219378</v>
+        <v>153.1242387616696</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.7818515392744</v>
+        <v>209.5113388382669</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.432846760848</v>
+        <v>189.5158707106134</v>
       </c>
       <c r="AD6" t="n">
-        <v>132857.762219378</v>
+        <v>153124.2387616696</v>
       </c>
       <c r="AE6" t="n">
-        <v>181781.8515392744</v>
+        <v>209511.3388382669</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.600577468933254e-06</v>
+        <v>7.967238689927944e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.555121527777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>164432.846760848</v>
+        <v>189515.8707106134</v>
       </c>
     </row>
     <row r="7">
@@ -7225,28 +7225,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.4835105476438</v>
+        <v>149.5793948893432</v>
       </c>
       <c r="AB7" t="n">
-        <v>177.1650515405323</v>
+        <v>204.6611270646779</v>
       </c>
       <c r="AC7" t="n">
-        <v>160.2566676742649</v>
+        <v>185.1285563413792</v>
       </c>
       <c r="AD7" t="n">
-        <v>129483.5105476438</v>
+        <v>149579.3948893432</v>
       </c>
       <c r="AE7" t="n">
-        <v>177165.0515405323</v>
+        <v>204661.1270646779</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.680647143138528e-06</v>
+        <v>8.105902631688739e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>160256.6676742649</v>
+        <v>185128.5563413792</v>
       </c>
     </row>
     <row r="8">
@@ -7331,28 +7331,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>126.4832878476988</v>
+        <v>146.5791721893983</v>
       </c>
       <c r="AB8" t="n">
-        <v>173.0600144819857</v>
+        <v>200.5560900061314</v>
       </c>
       <c r="AC8" t="n">
-        <v>156.543409591129</v>
+        <v>181.4152982582434</v>
       </c>
       <c r="AD8" t="n">
-        <v>126483.2878476988</v>
+        <v>146579.1721893983</v>
       </c>
       <c r="AE8" t="n">
-        <v>173060.0144819857</v>
+        <v>200556.0900061314</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.742462090655267e-06</v>
+        <v>8.212953201926267e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>156543.409591129</v>
+        <v>181415.2982582434</v>
       </c>
     </row>
     <row r="9">
@@ -7437,28 +7437,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>123.9652951876305</v>
+        <v>144.0611795293299</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.6147858384858</v>
+        <v>197.1108613626315</v>
       </c>
       <c r="AC9" t="n">
-        <v>153.4269887339549</v>
+        <v>178.2988774010692</v>
       </c>
       <c r="AD9" t="n">
-        <v>123965.2951876305</v>
+        <v>144061.1795293299</v>
       </c>
       <c r="AE9" t="n">
-        <v>169614.7858384858</v>
+        <v>197110.8613626315</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.791914048668657e-06</v>
+        <v>8.298593658116288e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="AH9" t="n">
-        <v>153426.9887339549</v>
+        <v>178298.8774010692</v>
       </c>
     </row>
     <row r="10">
@@ -7543,28 +7543,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>121.1253739817089</v>
+        <v>141.2212583234083</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.7290803560646</v>
+        <v>193.2251558802103</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.9121295291528</v>
+        <v>174.7840181962672</v>
       </c>
       <c r="AD10" t="n">
-        <v>121125.3739817089</v>
+        <v>141221.2583234083</v>
       </c>
       <c r="AE10" t="n">
-        <v>165729.0803560646</v>
+        <v>193225.1558802103</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.842428451092493e-06</v>
+        <v>8.386074045982268e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>149912.1295291528</v>
+        <v>174784.0181962672</v>
       </c>
     </row>
     <row r="11">
@@ -7649,28 +7649,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.0595822826547</v>
+        <v>139.1554666243541</v>
       </c>
       <c r="AB11" t="n">
-        <v>162.9025730171225</v>
+        <v>190.3986485412681</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.3553800836105</v>
+        <v>172.2272687507248</v>
       </c>
       <c r="AD11" t="n">
-        <v>119059.5822826547</v>
+        <v>139155.4666243542</v>
       </c>
       <c r="AE11" t="n">
-        <v>162902.5730171225</v>
+        <v>190398.6485412681</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.856723157705738e-06</v>
+        <v>8.410829490349696e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH11" t="n">
-        <v>147355.3800836105</v>
+        <v>172227.2687507248</v>
       </c>
     </row>
     <row r="12">
@@ -7755,28 +7755,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.6374653667362</v>
+        <v>138.7333497084356</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.325014030279</v>
+        <v>189.8210895544246</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.832942515862</v>
+        <v>171.7048311829763</v>
       </c>
       <c r="AD12" t="n">
-        <v>118637.4653667362</v>
+        <v>138733.3497084356</v>
       </c>
       <c r="AE12" t="n">
-        <v>162325.014030279</v>
+        <v>189821.0895544246</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.868506632076116e-06</v>
+        <v>8.431236005301225e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.305555555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>146832.942515862</v>
+        <v>171704.8311829763</v>
       </c>
     </row>
     <row r="13">
@@ -7861,28 +7861,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.9601451512741</v>
+        <v>138.0560294929735</v>
       </c>
       <c r="AB13" t="n">
-        <v>161.3982746302252</v>
+        <v>188.894350154371</v>
       </c>
       <c r="AC13" t="n">
-        <v>145.9946498234622</v>
+        <v>170.8665384905765</v>
       </c>
       <c r="AD13" t="n">
-        <v>117960.1451512741</v>
+        <v>138056.0294929735</v>
       </c>
       <c r="AE13" t="n">
-        <v>161398.2746302252</v>
+        <v>188894.3501543709</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.890045277851479e-06</v>
+        <v>8.468536438368362e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.286024305555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>145994.6498234622</v>
+        <v>170866.5384905765</v>
       </c>
     </row>
   </sheetData>
@@ -8158,28 +8158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.5044988860755</v>
+        <v>161.680003523629</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.0349892955432</v>
+        <v>221.2177136392759</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.470948211958</v>
+        <v>200.105005530618</v>
       </c>
       <c r="AD2" t="n">
-        <v>134504.4988860755</v>
+        <v>161680.003523629</v>
       </c>
       <c r="AE2" t="n">
-        <v>184034.9892955432</v>
+        <v>221217.7136392759</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.313185288145154e-06</v>
+        <v>8.161474718303135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.423177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>166470.948211958</v>
+        <v>200105.005530618</v>
       </c>
     </row>
     <row r="3">
@@ -8264,28 +8264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.1656844854839</v>
+        <v>120.481756565486</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.7875967448752</v>
+        <v>164.8484546127925</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.4464647047062</v>
+        <v>149.1155494708524</v>
       </c>
       <c r="AD3" t="n">
-        <v>102165.6844854839</v>
+        <v>120481.756565486</v>
       </c>
       <c r="AE3" t="n">
-        <v>139787.5967448752</v>
+        <v>164848.4546127925</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.104905906004083e-06</v>
+        <v>9.659580497429943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.581163194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>126446.4647047062</v>
+        <v>149115.5494708524</v>
       </c>
     </row>
     <row r="4">
@@ -8370,28 +8370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.68382005424219</v>
+        <v>112.8292999336521</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.5505797534923</v>
+        <v>154.3780258465628</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.186454247234</v>
+        <v>139.6444037307292</v>
       </c>
       <c r="AD4" t="n">
-        <v>94683.82005424218</v>
+        <v>112829.2999336521</v>
       </c>
       <c r="AE4" t="n">
-        <v>129550.5797534923</v>
+        <v>154378.0258465628</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.365184328564566e-06</v>
+        <v>1.015208328215513e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.359809027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>117186.454247234</v>
+        <v>139644.4037307292</v>
       </c>
     </row>
     <row r="5">
@@ -8476,28 +8476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.48145579679894</v>
+        <v>111.6269356762088</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.905451931892</v>
+        <v>152.7328980249625</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.6983351159753</v>
+        <v>138.1562845994705</v>
       </c>
       <c r="AD5" t="n">
-        <v>93481.45579679894</v>
+        <v>111626.9356762088</v>
       </c>
       <c r="AE5" t="n">
-        <v>127905.451931892</v>
+        <v>152732.8980249625</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.410019038206455e-06</v>
+        <v>1.023692020076618e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.322916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>115698.3351159753</v>
+        <v>138156.2845994705</v>
       </c>
     </row>
   </sheetData>
@@ -8773,28 +8773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.2017766228567</v>
+        <v>209.6064176137531</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.9282648334717</v>
+        <v>286.7927477615161</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.2663392073423</v>
+        <v>259.4216504313909</v>
       </c>
       <c r="AD2" t="n">
-        <v>181201.7766228567</v>
+        <v>209606.4176137531</v>
       </c>
       <c r="AE2" t="n">
-        <v>247928.2648334717</v>
+        <v>286792.7477615161</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.68602643770162e-06</v>
+        <v>6.715139657511398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.069878472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>224266.3392073423</v>
+        <v>259421.6504313909</v>
       </c>
     </row>
     <row r="3">
@@ -8879,28 +8879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.324053330983</v>
+        <v>151.7286048133284</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7374104406271</v>
+        <v>207.6017708991231</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.6333488126634</v>
+        <v>187.7885492554854</v>
       </c>
       <c r="AD3" t="n">
-        <v>123324.053330983</v>
+        <v>151728.6048133284</v>
       </c>
       <c r="AE3" t="n">
-        <v>168737.410440627</v>
+        <v>207601.7708991231</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.605522487251915e-06</v>
+        <v>8.390261768439696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.858940972222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>152633.3488126634</v>
+        <v>187788.5492554854</v>
       </c>
     </row>
     <row r="4">
@@ -8985,28 +8985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.3555334912743</v>
+        <v>132.4341359037906</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.0980418158872</v>
+        <v>181.202227325214</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.2957023864903</v>
+        <v>163.9085410682697</v>
       </c>
       <c r="AD4" t="n">
-        <v>113355.5334912743</v>
+        <v>132434.1359037906</v>
       </c>
       <c r="AE4" t="n">
-        <v>155098.0418158872</v>
+        <v>181202.227325214</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.921438151730734e-06</v>
+        <v>8.965791500205148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.546440972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>140295.7023864903</v>
+        <v>163908.5410682697</v>
       </c>
     </row>
     <row r="5">
@@ -9091,28 +9091,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.4033228941549</v>
+        <v>126.311333106079</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.9539646839139</v>
+        <v>172.8247384183937</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.9288845457058</v>
+        <v>156.3305879448342</v>
       </c>
       <c r="AD5" t="n">
-        <v>107403.3228941549</v>
+        <v>126311.333106079</v>
       </c>
       <c r="AE5" t="n">
-        <v>146953.9646839139</v>
+        <v>172824.7384183937</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.099295371452001e-06</v>
+        <v>9.28980872843472e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.388020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>132928.8845457058</v>
+        <v>156330.5879448342</v>
       </c>
     </row>
     <row r="6">
@@ -9197,28 +9197,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.5720097981659</v>
+        <v>122.48002001009</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.7117930803798</v>
+        <v>167.5825668148597</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.1870184425773</v>
+        <v>151.5887218417057</v>
       </c>
       <c r="AD6" t="n">
-        <v>103572.0097981659</v>
+        <v>122480.02001009</v>
       </c>
       <c r="AE6" t="n">
-        <v>141711.7930803798</v>
+        <v>167582.5668148597</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.186316527072144e-06</v>
+        <v>9.448342375174288e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.314236111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>128187.0184425773</v>
+        <v>151588.7218417057</v>
       </c>
     </row>
     <row r="7">
@@ -9303,28 +9303,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.5051524929733</v>
+        <v>121.4131627048973</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.2520718489934</v>
+        <v>166.1228455834733</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.8666109567824</v>
+        <v>150.2683143559107</v>
       </c>
       <c r="AD7" t="n">
-        <v>102505.1524929733</v>
+        <v>121413.1627048973</v>
       </c>
       <c r="AE7" t="n">
-        <v>140252.0718489935</v>
+        <v>166122.8455834733</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.214567470958306e-06</v>
+        <v>9.499809459542348e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.290364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>126866.6109567824</v>
+        <v>150268.3143559108</v>
       </c>
     </row>
   </sheetData>
@@ -9600,28 +9600,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.8821502437897</v>
+        <v>128.2047592904197</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.3996526867414</v>
+        <v>175.4154076558752</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.0955454829977</v>
+        <v>158.6740073463184</v>
       </c>
       <c r="AD2" t="n">
-        <v>101882.1502437897</v>
+        <v>128204.7592904197</v>
       </c>
       <c r="AE2" t="n">
-        <v>139399.6526867414</v>
+        <v>175415.4076558752</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.861972999314675e-06</v>
+        <v>9.527900548682589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.995659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>126095.5454829977</v>
+        <v>158674.0073463184</v>
       </c>
     </row>
     <row r="3">
@@ -9706,28 +9706,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.07991201270949</v>
+        <v>104.5999606008233</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.1465773103254</v>
+        <v>143.1182807185637</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.7753951951305</v>
+        <v>129.4592728745912</v>
       </c>
       <c r="AD3" t="n">
-        <v>87079.91201270948</v>
+        <v>104599.9606008233</v>
       </c>
       <c r="AE3" t="n">
-        <v>119146.5773103254</v>
+        <v>143118.2807185637</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.498878477860133e-06</v>
+        <v>1.077603007538864e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>107775.3951951305</v>
+        <v>129459.2728745912</v>
       </c>
     </row>
     <row r="4">
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.88197536284723</v>
+        <v>104.4020239509611</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.8757516536353</v>
+        <v>142.8474550618736</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.5304167590086</v>
+        <v>129.2142944384694</v>
       </c>
       <c r="AD4" t="n">
-        <v>86881.97536284722</v>
+        <v>104402.0239509611</v>
       </c>
       <c r="AE4" t="n">
-        <v>118875.7516536353</v>
+        <v>142847.4550618736</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.525071075747591e-06</v>
+        <v>1.082735912798076e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.396701388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>107530.4167590086</v>
+        <v>129214.2944384694</v>
       </c>
     </row>
   </sheetData>
@@ -10109,28 +10109,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.6852707768467</v>
+        <v>363.3028453908905</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.5122233463121</v>
+        <v>497.0869808541714</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.3749164164367</v>
+        <v>449.6456970674079</v>
       </c>
       <c r="AD2" t="n">
-        <v>322685.2707768467</v>
+        <v>363302.8453908905</v>
       </c>
       <c r="AE2" t="n">
-        <v>441512.2233463121</v>
+        <v>497086.9808541714</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.595399852138437e-06</v>
+        <v>4.465336671005636e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.003472222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>399374.9164164367</v>
+        <v>449645.6970674079</v>
       </c>
     </row>
     <row r="3">
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.2323963884508</v>
+        <v>213.7595158584986</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.7066483813776</v>
+        <v>292.4752000017375</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.7795577289228</v>
+        <v>264.5617774051792</v>
       </c>
       <c r="AD3" t="n">
-        <v>183232.3963884508</v>
+        <v>213759.5158584986</v>
       </c>
       <c r="AE3" t="n">
-        <v>250706.6483813776</v>
+        <v>292475.2000017375</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.742391422419642e-06</v>
+        <v>6.438714112593707e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.551215277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>226779.5577289228</v>
+        <v>264561.7774051792</v>
       </c>
     </row>
     <row r="4">
@@ -10321,28 +10321,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.0611737629889</v>
+        <v>183.4126762515719</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.1074916936976</v>
+        <v>250.953315243486</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.8144258198465</v>
+        <v>227.0026830519107</v>
       </c>
       <c r="AD4" t="n">
-        <v>163061.1737629889</v>
+        <v>183412.6762515719</v>
       </c>
       <c r="AE4" t="n">
-        <v>223107.4916936976</v>
+        <v>250953.315243486</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.1507253987878e-06</v>
+        <v>7.141245045232839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.004340277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>201814.4258198465</v>
+        <v>227002.6830519107</v>
       </c>
     </row>
     <row r="5">
@@ -10427,28 +10427,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>143.196569326198</v>
+        <v>173.6383479416742</v>
       </c>
       <c r="AB5" t="n">
-        <v>195.9278635387969</v>
+        <v>237.5796480369592</v>
       </c>
       <c r="AC5" t="n">
-        <v>177.2287832291932</v>
+        <v>214.9053798735108</v>
       </c>
       <c r="AD5" t="n">
-        <v>143196.569326198</v>
+        <v>173638.3479416742</v>
       </c>
       <c r="AE5" t="n">
-        <v>195927.863538797</v>
+        <v>237579.6480369592</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.37489749739404e-06</v>
+        <v>7.526928928083481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.748263888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>177228.7832291932</v>
+        <v>214905.3798735108</v>
       </c>
     </row>
     <row r="6">
@@ -10533,28 +10533,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.6042957413397</v>
+        <v>158.0410495759432</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.2762681062993</v>
+        <v>216.2387363087368</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.307445325689</v>
+        <v>195.6012148084654</v>
       </c>
       <c r="AD6" t="n">
-        <v>137604.2957413397</v>
+        <v>158041.0495759432</v>
       </c>
       <c r="AE6" t="n">
-        <v>188276.2681062993</v>
+        <v>216238.7363087368</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.508903021753022e-06</v>
+        <v>7.75748291441606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.607204861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>170307.445325689</v>
+        <v>195601.2148084654</v>
       </c>
     </row>
     <row r="7">
@@ -10639,28 +10639,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.7019494299871</v>
+        <v>154.1387032645906</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.9369057237405</v>
+        <v>210.899373926178</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.4776641950778</v>
+        <v>190.7714336778542</v>
       </c>
       <c r="AD7" t="n">
-        <v>133701.9494299871</v>
+        <v>154138.7032645906</v>
       </c>
       <c r="AE7" t="n">
-        <v>182936.9057237405</v>
+        <v>210899.373926178</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.60328119819442e-06</v>
+        <v>7.91985879336172e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.51171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>165477.6641950778</v>
+        <v>190771.4336778542</v>
       </c>
     </row>
     <row r="8">
@@ -10745,28 +10745,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.9003247357734</v>
+        <v>151.1664863697846</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.1035992181608</v>
+        <v>206.8326556457515</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.0102030823099</v>
+        <v>187.0928372824353</v>
       </c>
       <c r="AD8" t="n">
-        <v>130900.3247357733</v>
+        <v>151166.4863697847</v>
       </c>
       <c r="AE8" t="n">
-        <v>179103.5992181608</v>
+        <v>206832.6556457515</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.663870838851016e-06</v>
+        <v>8.024102131467808e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>162010.2030823099</v>
+        <v>187092.8372824353</v>
       </c>
     </row>
     <row r="9">
@@ -10851,28 +10851,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>128.1815279889806</v>
+        <v>148.447689622992</v>
       </c>
       <c r="AB9" t="n">
-        <v>175.3836215643536</v>
+        <v>203.1126779919443</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.6452548747595</v>
+        <v>183.7278890748849</v>
       </c>
       <c r="AD9" t="n">
-        <v>128181.5279889806</v>
+        <v>148447.689622992</v>
       </c>
       <c r="AE9" t="n">
-        <v>175383.6215643536</v>
+        <v>203112.6779919443</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.713357164632156e-06</v>
+        <v>8.109242424992053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>158645.2548747595</v>
+        <v>183727.8890748849</v>
       </c>
     </row>
     <row r="10">
@@ -10957,28 +10957,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>125.5451661861302</v>
+        <v>145.8113278201415</v>
       </c>
       <c r="AB10" t="n">
-        <v>171.7764350376213</v>
+        <v>199.505491465212</v>
       </c>
       <c r="AC10" t="n">
-        <v>155.3823331674193</v>
+        <v>180.4649673675447</v>
       </c>
       <c r="AD10" t="n">
-        <v>125545.1661861302</v>
+        <v>145811.3278201415</v>
       </c>
       <c r="AE10" t="n">
-        <v>171776.4350376213</v>
+        <v>199505.491465212</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.765619319132158e-06</v>
+        <v>8.199158479661759e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.359809027777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>155382.3331674193</v>
+        <v>180464.9673675447</v>
       </c>
     </row>
     <row r="11">
@@ -11063,28 +11063,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>123.462918051929</v>
+        <v>143.7290796859403</v>
       </c>
       <c r="AB11" t="n">
-        <v>168.9274112781044</v>
+        <v>196.6564677056951</v>
       </c>
       <c r="AC11" t="n">
-        <v>152.8052162368798</v>
+        <v>177.8878504370052</v>
       </c>
       <c r="AD11" t="n">
-        <v>123462.918051929</v>
+        <v>143729.0796859403</v>
       </c>
       <c r="AE11" t="n">
-        <v>168927.4112781044</v>
+        <v>196656.4677056951</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.800173600770439e-06</v>
+        <v>8.258608471851803e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.327256944444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>152805.2162368798</v>
+        <v>177887.8504370052</v>
       </c>
     </row>
     <row r="12">
@@ -11169,28 +11169,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.3149999692403</v>
+        <v>142.5811616032516</v>
       </c>
       <c r="AB12" t="n">
-        <v>167.3567791147988</v>
+        <v>195.0858355423895</v>
       </c>
       <c r="AC12" t="n">
-        <v>151.3844830028435</v>
+        <v>176.4671172029689</v>
       </c>
       <c r="AD12" t="n">
-        <v>122314.9999692403</v>
+        <v>142581.1616032516</v>
       </c>
       <c r="AE12" t="n">
-        <v>167356.7791147988</v>
+        <v>195085.8355423895</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.812616970889488e-06</v>
+        <v>8.280017056296971e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH12" t="n">
-        <v>151384.4830028435</v>
+        <v>176467.1172029689</v>
       </c>
     </row>
     <row r="13">
@@ -11275,28 +11275,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>120.878638210142</v>
+        <v>141.1447998441533</v>
       </c>
       <c r="AB13" t="n">
-        <v>165.391485588193</v>
+        <v>193.1205420157836</v>
       </c>
       <c r="AC13" t="n">
-        <v>149.6067543321095</v>
+        <v>174.6893885322349</v>
       </c>
       <c r="AD13" t="n">
-        <v>120878.638210142</v>
+        <v>141144.7998441533</v>
       </c>
       <c r="AE13" t="n">
-        <v>165391.485588193</v>
+        <v>193120.5420157836</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.830229125519525e-06</v>
+        <v>8.310318437357824e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>149606.7543321095</v>
+        <v>174689.3885322349</v>
       </c>
     </row>
     <row r="14">
@@ -11381,28 +11381,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.8880723370242</v>
+        <v>141.1542339710355</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.4043937767975</v>
+        <v>193.1334502043882</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.6184305813104</v>
+        <v>174.7010647814358</v>
       </c>
       <c r="AD14" t="n">
-        <v>120888.0723370242</v>
+        <v>141154.2339710355</v>
       </c>
       <c r="AE14" t="n">
-        <v>165404.3937767975</v>
+        <v>193133.4502043882</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.83032484375121e-06</v>
+        <v>8.310483118776633e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>149618.4305813104</v>
+        <v>174701.0647814358</v>
       </c>
     </row>
   </sheetData>
@@ -11678,28 +11678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.42153983810989</v>
+        <v>115.1886254323017</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.3504958063653</v>
+        <v>157.6061590799086</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.6735362066373</v>
+        <v>142.564448458999</v>
       </c>
       <c r="AD2" t="n">
-        <v>89421.53983810989</v>
+        <v>115188.6254323017</v>
       </c>
       <c r="AE2" t="n">
-        <v>122350.4958063653</v>
+        <v>157606.1590799086</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.22365850161646e-06</v>
+        <v>1.047166121911227e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.759114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110673.5362066372</v>
+        <v>142564.448458999</v>
       </c>
     </row>
     <row r="3">
@@ -11784,28 +11784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.87394985680375</v>
+        <v>100.0236494766255</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.3917943346635</v>
+        <v>136.8567699458415</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.5698406297753</v>
+        <v>123.7953519019301</v>
       </c>
       <c r="AD3" t="n">
-        <v>82873.94985680375</v>
+        <v>100023.6494766255</v>
       </c>
       <c r="AE3" t="n">
-        <v>113391.7943346635</v>
+        <v>136856.7699458415</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.554482951796683e-06</v>
+        <v>1.113485188600107e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.474826388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>102569.8406297753</v>
+        <v>123795.3519019301</v>
       </c>
     </row>
   </sheetData>
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.7007873570204</v>
+        <v>264.8724534797113</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.8137744777247</v>
+        <v>362.4101761988791</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.3410212645167</v>
+        <v>327.8222576283343</v>
       </c>
       <c r="AD2" t="n">
-        <v>225700.7873570204</v>
+        <v>264872.4534797113</v>
       </c>
       <c r="AE2" t="n">
-        <v>308813.7744777247</v>
+        <v>362410.1761988791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.167908316144104e-06</v>
+        <v>5.610601025337259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>279341.0212645167</v>
+        <v>327822.2576283343</v>
       </c>
     </row>
     <row r="3">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.2506908849801</v>
+        <v>173.8792838821607</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.0526003289399</v>
+        <v>237.9093072200762</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.9100363677911</v>
+        <v>215.2035768468708</v>
       </c>
       <c r="AD3" t="n">
-        <v>154250.6908849801</v>
+        <v>173879.2838821607</v>
       </c>
       <c r="AE3" t="n">
-        <v>211052.6003289399</v>
+        <v>237909.3072200762</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.191005174794526e-06</v>
+        <v>7.422581585162991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.151909722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>190910.0363677911</v>
+        <v>215203.5768468708</v>
       </c>
     </row>
     <row r="4">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.1913830664861</v>
+        <v>159.5487974448589</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.1335939499433</v>
+        <v>218.3017034601276</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.1327737554799</v>
+        <v>197.4672952703207</v>
       </c>
       <c r="AD4" t="n">
-        <v>130191.383066486</v>
+        <v>159548.7974448589</v>
       </c>
       <c r="AE4" t="n">
-        <v>178133.5939499433</v>
+        <v>218301.7034601276</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.561891469142365e-06</v>
+        <v>8.079448771863751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.733072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>161132.7737554799</v>
+        <v>197467.2952703207</v>
       </c>
     </row>
     <row r="5">
@@ -12399,28 +12399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.5670344787955</v>
+        <v>143.2808788219967</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.0698679666356</v>
+        <v>196.0432195104212</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.9340770589968</v>
+        <v>177.3331297887888</v>
       </c>
       <c r="AD5" t="n">
-        <v>123567.0344787955</v>
+        <v>143280.8788219967</v>
       </c>
       <c r="AE5" t="n">
-        <v>169069.8679666356</v>
+        <v>196043.2195104212</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.743801892020778e-06</v>
+        <v>8.401625647981e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.552951388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>152934.0770589969</v>
+        <v>177333.1297887888</v>
       </c>
     </row>
     <row r="6">
@@ -12505,28 +12505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.8774625158965</v>
+        <v>138.4207146585055</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.6533887176869</v>
+        <v>189.3933284866256</v>
       </c>
       <c r="AC6" t="n">
-        <v>147.1299775839806</v>
+        <v>171.3178950311215</v>
       </c>
       <c r="AD6" t="n">
-        <v>118877.4625158965</v>
+        <v>138420.7146585055</v>
       </c>
       <c r="AE6" t="n">
-        <v>162653.3887176869</v>
+        <v>189393.3284866256</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.866999432241498e-06</v>
+        <v>8.61981764613918e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.437934027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>147129.9775839806</v>
+        <v>171317.8950311214</v>
       </c>
     </row>
     <row r="7">
@@ -12611,28 +12611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.565696623361</v>
+        <v>135.1089487659701</v>
       </c>
       <c r="AB7" t="n">
-        <v>158.1220845187225</v>
+        <v>184.8620242876612</v>
       </c>
       <c r="AC7" t="n">
-        <v>143.0311346980385</v>
+        <v>167.2190521451794</v>
       </c>
       <c r="AD7" t="n">
-        <v>115565.696623361</v>
+        <v>135108.9487659701</v>
       </c>
       <c r="AE7" t="n">
-        <v>158122.0845187225</v>
+        <v>184862.0242876612</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.945117420184361e-06</v>
+        <v>8.7581704074915e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>143031.1346980385</v>
+        <v>167219.0521451794</v>
       </c>
     </row>
     <row r="8">
@@ -12717,28 +12717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>112.4425067457737</v>
+        <v>131.9857588883827</v>
       </c>
       <c r="AB8" t="n">
-        <v>153.8487983427967</v>
+        <v>180.5887381117354</v>
       </c>
       <c r="AC8" t="n">
-        <v>139.1656849571469</v>
+        <v>163.3536024042878</v>
       </c>
       <c r="AD8" t="n">
-        <v>112442.5067457737</v>
+        <v>131985.7588883828</v>
       </c>
       <c r="AE8" t="n">
-        <v>153848.7983427967</v>
+        <v>180588.7381117354</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.007213757096906e-06</v>
+        <v>8.868147634349904e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.312065972222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>139165.6849571469</v>
+        <v>163353.6024042878</v>
       </c>
     </row>
     <row r="9">
@@ -12823,28 +12823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>110.4157068590666</v>
+        <v>129.9589590016757</v>
       </c>
       <c r="AB9" t="n">
-        <v>151.0756413217052</v>
+        <v>177.8155810906439</v>
       </c>
       <c r="AC9" t="n">
-        <v>136.6571941499971</v>
+        <v>160.845111597138</v>
       </c>
       <c r="AD9" t="n">
-        <v>110415.7068590666</v>
+        <v>129958.9590016757</v>
       </c>
       <c r="AE9" t="n">
-        <v>151075.6413217052</v>
+        <v>177815.5810906439</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.042740026772832e-06</v>
+        <v>8.931067297792935e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.281684027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>136657.1941499971</v>
+        <v>160845.111597138</v>
       </c>
     </row>
     <row r="10">
@@ -12929,28 +12929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>110.6875981884284</v>
+        <v>130.2308503310375</v>
       </c>
       <c r="AB10" t="n">
-        <v>151.4476550335367</v>
+        <v>178.1875948024754</v>
       </c>
       <c r="AC10" t="n">
-        <v>136.9937033952961</v>
+        <v>161.181620842437</v>
       </c>
       <c r="AD10" t="n">
-        <v>110687.5981884284</v>
+        <v>130230.8503310375</v>
       </c>
       <c r="AE10" t="n">
-        <v>151447.6550335367</v>
+        <v>178187.5948024754</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.037963385471867e-06</v>
+        <v>8.922607511111518e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.286024305555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>136993.7033952961</v>
+        <v>161181.620842437</v>
       </c>
     </row>
   </sheetData>
@@ -13226,28 +13226,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.2942251268498</v>
+        <v>311.1323997015602</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.1967274750642</v>
+        <v>425.7050754644045</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.7702327827224</v>
+        <v>385.0763805429069</v>
       </c>
       <c r="AD2" t="n">
-        <v>271294.2251268498</v>
+        <v>311132.3997015603</v>
       </c>
       <c r="AE2" t="n">
-        <v>371196.7274750642</v>
+        <v>425705.0754644045</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86552352130428e-06</v>
+        <v>4.997222805920714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.384982638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>335770.2327827224</v>
+        <v>385076.3805429069</v>
       </c>
     </row>
     <row r="3">
@@ -13332,28 +13332,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.0548221547391</v>
+        <v>197.8908050356234</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.9400217275056</v>
+        <v>270.762929775778</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.9948687767461</v>
+        <v>244.9216957762157</v>
       </c>
       <c r="AD3" t="n">
-        <v>168054.8221547391</v>
+        <v>197890.8050356234</v>
       </c>
       <c r="AE3" t="n">
-        <v>229940.0217275055</v>
+        <v>270762.929775778</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.964092833446078e-06</v>
+        <v>6.913031760097743e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>207994.8687767461</v>
+        <v>244921.6957762157</v>
       </c>
     </row>
     <row r="4">
@@ -13438,28 +13438,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>141.183150775334</v>
+        <v>171.1043850022389</v>
       </c>
       <c r="AB4" t="n">
-        <v>193.1730154517487</v>
+        <v>234.1125681526704</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.7368539771184</v>
+        <v>211.7691932273002</v>
       </c>
       <c r="AD4" t="n">
-        <v>141183.150775334</v>
+        <v>171104.3850022389</v>
       </c>
       <c r="AE4" t="n">
-        <v>193173.0154517487</v>
+        <v>234112.5681526704</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.353520882855358e-06</v>
+        <v>7.592160273720098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>174736.8539771184</v>
+        <v>211769.1932273002</v>
       </c>
     </row>
     <row r="5">
@@ -13544,28 +13544,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.2176046108542</v>
+        <v>163.138838837759</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.2742037744177</v>
+        <v>223.2137564753394</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.8782095896901</v>
+        <v>201.910548839872</v>
       </c>
       <c r="AD5" t="n">
-        <v>133217.6046108541</v>
+        <v>163138.838837759</v>
       </c>
       <c r="AE5" t="n">
-        <v>182274.2037744177</v>
+        <v>223213.7564753394</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.56022780943214e-06</v>
+        <v>7.952639104185641e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.639756944444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>164878.2095896901</v>
+        <v>201910.5488398719</v>
       </c>
     </row>
     <row r="6">
@@ -13650,28 +13650,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.5025512565236</v>
+        <v>148.5922754987463</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.8228597615528</v>
+        <v>203.31050676583</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.0425727948928</v>
+        <v>183.9068373482454</v>
       </c>
       <c r="AD6" t="n">
-        <v>128502.5512565236</v>
+        <v>148592.2754987463</v>
       </c>
       <c r="AE6" t="n">
-        <v>175822.8597615528</v>
+        <v>203310.50676583</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.679181795481045e-06</v>
+        <v>8.160084468887514e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>159042.5727948928</v>
+        <v>183906.8373482454</v>
       </c>
     </row>
     <row r="7">
@@ -13756,28 +13756,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.4078375536232</v>
+        <v>144.3269695952536</v>
       </c>
       <c r="AB7" t="n">
-        <v>170.2202918272281</v>
+        <v>197.4745270566584</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.9747060809648</v>
+        <v>178.6278353516662</v>
       </c>
       <c r="AD7" t="n">
-        <v>124407.8375536232</v>
+        <v>144326.9695952536</v>
       </c>
       <c r="AE7" t="n">
-        <v>170220.2918272281</v>
+        <v>197474.5270566583</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.775710030061711e-06</v>
+        <v>8.328421281227555e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.431423611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>153974.7060809647</v>
+        <v>178627.8353516663</v>
       </c>
     </row>
     <row r="8">
@@ -13862,28 +13862,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>121.9681037190716</v>
+        <v>141.8872357607021</v>
       </c>
       <c r="AB8" t="n">
-        <v>166.8821403613358</v>
+        <v>194.1363755907661</v>
       </c>
       <c r="AC8" t="n">
-        <v>150.9551431058512</v>
+        <v>175.6082723765527</v>
       </c>
       <c r="AD8" t="n">
-        <v>121968.1037190716</v>
+        <v>141887.2357607021</v>
       </c>
       <c r="AE8" t="n">
-        <v>166882.1403613359</v>
+        <v>194136.3755907661</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.823876644084792e-06</v>
+        <v>8.412419650213395e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.385850694444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>150955.1431058512</v>
+        <v>175608.2723765527</v>
       </c>
     </row>
     <row r="9">
@@ -13968,28 +13968,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.3832966490931</v>
+        <v>139.3024286907236</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.3454932945532</v>
+        <v>190.5997285239835</v>
       </c>
       <c r="AC9" t="n">
-        <v>147.7560286714058</v>
+        <v>172.4091579421074</v>
       </c>
       <c r="AD9" t="n">
-        <v>119383.2966490931</v>
+        <v>139302.4286907236</v>
       </c>
       <c r="AE9" t="n">
-        <v>163345.4932945532</v>
+        <v>190599.7285239835</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.872043258107873e-06</v>
+        <v>8.496418019199235e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>147756.0286714058</v>
+        <v>172409.1579421074</v>
       </c>
     </row>
     <row r="10">
@@ -14074,28 +14074,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>116.36448778764</v>
+        <v>136.2836198292704</v>
       </c>
       <c r="AB10" t="n">
-        <v>159.2150258298675</v>
+        <v>186.4692610592978</v>
       </c>
       <c r="AC10" t="n">
-        <v>144.0197672244009</v>
+        <v>168.6728964951024</v>
       </c>
       <c r="AD10" t="n">
-        <v>116364.48778764</v>
+        <v>136283.6198292704</v>
       </c>
       <c r="AE10" t="n">
-        <v>159215.0258298675</v>
+        <v>186469.2610592978</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.926352577967905e-06</v>
+        <v>8.591128730788531e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.294704861111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>144019.7672244009</v>
+        <v>168672.8964951024</v>
       </c>
     </row>
     <row r="11">
@@ -14180,28 +14180,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.2524916847143</v>
+        <v>135.1716237263448</v>
       </c>
       <c r="AB11" t="n">
-        <v>157.6935437040397</v>
+        <v>184.94777893347</v>
       </c>
       <c r="AC11" t="n">
-        <v>142.643493217248</v>
+        <v>167.2966224879495</v>
       </c>
       <c r="AD11" t="n">
-        <v>115252.4916847143</v>
+        <v>135171.6237263448</v>
       </c>
       <c r="AE11" t="n">
-        <v>157693.5437040397</v>
+        <v>184947.77893347</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.938930499443567e-06</v>
+        <v>8.613063527547991e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>142643.493217248</v>
+        <v>167296.6224879496</v>
       </c>
     </row>
     <row r="12">
@@ -14286,28 +14286,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.7514005723064</v>
+        <v>135.6705326139369</v>
       </c>
       <c r="AB12" t="n">
-        <v>158.3761728543495</v>
+        <v>185.6304080837798</v>
       </c>
       <c r="AC12" t="n">
-        <v>143.2609731995286</v>
+        <v>167.9141024702301</v>
       </c>
       <c r="AD12" t="n">
-        <v>115751.4005723064</v>
+        <v>135670.5326139369</v>
       </c>
       <c r="AE12" t="n">
-        <v>158376.1728543495</v>
+        <v>185630.4080837798</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.938150473305542e-06</v>
+        <v>8.611703230074536e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>143260.9731995286</v>
+        <v>167914.1024702301</v>
       </c>
     </row>
   </sheetData>
@@ -14583,28 +14583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>370.4554500709026</v>
+        <v>422.0572358355778</v>
       </c>
       <c r="AB2" t="n">
-        <v>506.8734901280119</v>
+        <v>577.4773299213604</v>
       </c>
       <c r="AC2" t="n">
-        <v>458.4981956316051</v>
+        <v>522.363704048188</v>
       </c>
       <c r="AD2" t="n">
-        <v>370455.4500709026</v>
+        <v>422057.2358355778</v>
       </c>
       <c r="AE2" t="n">
-        <v>506873.4901280119</v>
+        <v>577477.3299213604</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.353468912464988e-06</v>
+        <v>4.000741171793429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>458498.1956316051</v>
+        <v>522363.7040481879</v>
       </c>
     </row>
     <row r="3">
@@ -14689,28 +14689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>198.9644397290003</v>
+        <v>229.976715700548</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.2319241286754</v>
+        <v>314.6642882779812</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.2504913698196</v>
+        <v>284.6331702389263</v>
       </c>
       <c r="AD3" t="n">
-        <v>198964.4397290003</v>
+        <v>229976.715700548</v>
       </c>
       <c r="AE3" t="n">
-        <v>272231.9241286754</v>
+        <v>314664.2882779812</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.540602789452767e-06</v>
+        <v>6.018790083738176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.768229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>246250.4913698196</v>
+        <v>284633.1702389263</v>
       </c>
     </row>
     <row r="4">
@@ -14795,28 +14795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.85093434113</v>
+        <v>194.5258744973795</v>
       </c>
       <c r="AB4" t="n">
-        <v>237.8705181273445</v>
+        <v>266.1588833630967</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.1684897307085</v>
+        <v>240.7570530913396</v>
       </c>
       <c r="AD4" t="n">
-        <v>173850.93434113</v>
+        <v>194525.8744973795</v>
       </c>
       <c r="AE4" t="n">
-        <v>237870.5181273445</v>
+        <v>266158.8833630967</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.985942690031977e-06</v>
+        <v>6.775838399206904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>215168.4897307085</v>
+        <v>240757.0530913396</v>
       </c>
     </row>
     <row r="5">
@@ -14901,28 +14901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.0198457677498</v>
+        <v>183.9467808847258</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.368503738492</v>
+        <v>251.6841007656002</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.3866675922906</v>
+        <v>227.6637234294586</v>
       </c>
       <c r="AD5" t="n">
-        <v>153019.8457677498</v>
+        <v>183946.7808847258</v>
       </c>
       <c r="AE5" t="n">
-        <v>209368.503738492</v>
+        <v>251684.1007656002</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.21256536133264e-06</v>
+        <v>7.161081920688033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.848090277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>189386.6675922906</v>
+        <v>227663.7234294586</v>
       </c>
     </row>
     <row r="6">
@@ -15007,28 +15007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.7880977412336</v>
+        <v>177.7150328582097</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.8419511632972</v>
+        <v>243.1575481904054</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.673877227778</v>
+        <v>219.950933064946</v>
       </c>
       <c r="AD6" t="n">
-        <v>146788.0977412336</v>
+        <v>177715.0328582097</v>
       </c>
       <c r="AE6" t="n">
-        <v>200841.9511632972</v>
+        <v>243157.5481904054</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.355992666591034e-06</v>
+        <v>7.404898833784894e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.689670138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>181673.877227778</v>
+        <v>219950.9330649459</v>
       </c>
     </row>
     <row r="7">
@@ -15113,28 +15113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.5540899451788</v>
+        <v>163.3142814474489</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.0487949054971</v>
+        <v>223.4538047938986</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.4336116724746</v>
+        <v>202.1276872838179</v>
       </c>
       <c r="AD7" t="n">
-        <v>142554.0899451788</v>
+        <v>163314.2814474489</v>
       </c>
       <c r="AE7" t="n">
-        <v>195048.7949054971</v>
+        <v>223453.8047938986</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.452551994146881e-06</v>
+        <v>7.569043291027268e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.587673611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>176433.6116724746</v>
+        <v>202127.6872838179</v>
       </c>
     </row>
     <row r="8">
@@ -15219,28 +15219,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.3993927581235</v>
+        <v>160.1595842603935</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.7323990387527</v>
+        <v>219.1374089271542</v>
       </c>
       <c r="AC8" t="n">
-        <v>172.5291665691513</v>
+        <v>198.2232421804946</v>
       </c>
       <c r="AD8" t="n">
-        <v>139399.3927581235</v>
+        <v>160159.5842603935</v>
       </c>
       <c r="AE8" t="n">
-        <v>190732.3990387527</v>
+        <v>219137.4089271542</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.51560730551376e-06</v>
+        <v>7.676233141273262e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>172529.1665691513</v>
+        <v>198223.2421804946</v>
       </c>
     </row>
     <row r="9">
@@ -15325,28 +15325,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>136.3033593140435</v>
+        <v>156.8929586157213</v>
       </c>
       <c r="AB9" t="n">
-        <v>186.4962694932089</v>
+        <v>214.6678676067636</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.6973272819877</v>
+        <v>194.18026761068</v>
       </c>
       <c r="AD9" t="n">
-        <v>136303.3593140435</v>
+        <v>156892.9586157213</v>
       </c>
       <c r="AE9" t="n">
-        <v>186496.2694932089</v>
+        <v>214667.8676067636</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.584591698397227e-06</v>
+        <v>7.793502037139404e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.455295138888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>168697.3272819877</v>
+        <v>194180.26761068</v>
       </c>
     </row>
     <row r="10">
@@ -15431,28 +15431,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.5734008444701</v>
+        <v>155.1630001461479</v>
       </c>
       <c r="AB10" t="n">
-        <v>184.1292639947584</v>
+        <v>212.3008621083131</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.5562254661955</v>
+        <v>192.0391657948878</v>
       </c>
       <c r="AD10" t="n">
-        <v>134573.4008444701</v>
+        <v>155163.0001461479</v>
       </c>
       <c r="AE10" t="n">
-        <v>184129.2639947585</v>
+        <v>212300.8621083131</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.617342815345994e-06</v>
+        <v>7.849176765326876e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.422743055555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>166556.2254661956</v>
+        <v>192039.1657948878</v>
       </c>
     </row>
     <row r="11">
@@ -15537,28 +15537,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.3321906713196</v>
+        <v>152.9217899729975</v>
       </c>
       <c r="AB11" t="n">
-        <v>181.062741360641</v>
+        <v>209.2343394741956</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.7823674483857</v>
+        <v>189.2653077770779</v>
       </c>
       <c r="AD11" t="n">
-        <v>132332.1906713196</v>
+        <v>152921.7899729974</v>
       </c>
       <c r="AE11" t="n">
-        <v>181062.741360641</v>
+        <v>209234.3394741956</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.651317393560088e-06</v>
+        <v>7.906931296578822e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.390190972222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>163782.3674483857</v>
+        <v>189265.3077770779</v>
       </c>
     </row>
     <row r="12">
@@ -15643,28 +15643,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.4764899895216</v>
+        <v>151.0660892911994</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.52368982007</v>
+        <v>206.6952879336247</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.4856394232648</v>
+        <v>186.968579751957</v>
       </c>
       <c r="AD12" t="n">
-        <v>130476.4899895215</v>
+        <v>151066.0892911994</v>
       </c>
       <c r="AE12" t="n">
-        <v>178523.68982007</v>
+        <v>206695.2879336247</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.68359794848373e-06</v>
+        <v>7.961806100510727e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.359809027777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>161485.6394232648</v>
+        <v>186968.579751957</v>
       </c>
     </row>
     <row r="13">
@@ -15749,28 +15749,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>129.2138281990471</v>
+        <v>149.803427500725</v>
       </c>
       <c r="AB13" t="n">
-        <v>176.796060253637</v>
+        <v>204.9676583671917</v>
       </c>
       <c r="AC13" t="n">
-        <v>159.9228923979083</v>
+        <v>185.4058327266005</v>
       </c>
       <c r="AD13" t="n">
-        <v>129213.8281990471</v>
+        <v>149803.427500725</v>
       </c>
       <c r="AE13" t="n">
-        <v>176796.060253637</v>
+        <v>204967.6583671917</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.702608654298819e-06</v>
+        <v>7.99412304043564e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>159922.8923979083</v>
+        <v>185405.8327266005</v>
       </c>
     </row>
     <row r="14">
@@ -15855,28 +15855,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>127.4849270512224</v>
+        <v>148.0745263529003</v>
       </c>
       <c r="AB14" t="n">
-        <v>174.4305014294489</v>
+        <v>202.6020995430035</v>
       </c>
       <c r="AC14" t="n">
-        <v>157.7830991878172</v>
+        <v>183.2660395165095</v>
       </c>
       <c r="AD14" t="n">
-        <v>127484.9270512224</v>
+        <v>148074.5263529003</v>
       </c>
       <c r="AE14" t="n">
-        <v>174430.5014294489</v>
+        <v>202602.0995430035</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.717196077077723e-06</v>
+        <v>8.018920692358221e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>157783.0991878172</v>
+        <v>183266.0395165095</v>
       </c>
     </row>
     <row r="15">
@@ -15961,28 +15961,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>125.7145214431933</v>
+        <v>146.3041207448711</v>
       </c>
       <c r="AB15" t="n">
-        <v>172.0081543717616</v>
+        <v>200.1797524853163</v>
       </c>
       <c r="AC15" t="n">
-        <v>155.5919375335295</v>
+        <v>181.0748778622217</v>
       </c>
       <c r="AD15" t="n">
-        <v>125714.5214431933</v>
+        <v>146304.1207448712</v>
       </c>
       <c r="AE15" t="n">
-        <v>172008.1543717616</v>
+        <v>200179.7524853163</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.738653705423467e-06</v>
+        <v>8.055397238412081e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>155591.9375335295</v>
+        <v>181074.8778622217</v>
       </c>
     </row>
     <row r="16">
@@ -16067,28 +16067,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>125.770864742692</v>
+        <v>146.3604640443699</v>
       </c>
       <c r="AB16" t="n">
-        <v>172.0852457598266</v>
+        <v>200.2568438733813</v>
       </c>
       <c r="AC16" t="n">
-        <v>155.661671427716</v>
+        <v>181.1446117564083</v>
       </c>
       <c r="AD16" t="n">
-        <v>125770.864742692</v>
+        <v>146360.4640443699</v>
       </c>
       <c r="AE16" t="n">
-        <v>172085.2457598266</v>
+        <v>200256.8438733813</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.737242019348088e-06</v>
+        <v>8.052997465645379e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.312065972222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>155661.671427716</v>
+        <v>181144.6117564083</v>
       </c>
     </row>
     <row r="17">
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>126.0796978324179</v>
+        <v>146.6692971340958</v>
       </c>
       <c r="AB17" t="n">
-        <v>172.5078048179438</v>
+        <v>200.6794029314984</v>
       </c>
       <c r="AC17" t="n">
-        <v>156.0439020423919</v>
+        <v>181.5268423710842</v>
       </c>
       <c r="AD17" t="n">
-        <v>126079.6978324179</v>
+        <v>146669.2971340958</v>
       </c>
       <c r="AE17" t="n">
-        <v>172507.8048179438</v>
+        <v>200679.4029314984</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.736489120107887e-06</v>
+        <v>8.051717586836472e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.312065972222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>156043.9020423919</v>
+        <v>181526.8423710842</v>
       </c>
     </row>
   </sheetData>
@@ -16470,28 +16470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.7686884553103</v>
+        <v>224.5078761927513</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.8593562494189</v>
+        <v>307.1815807952463</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.2952352320204</v>
+        <v>277.8646018562953</v>
       </c>
       <c r="AD2" t="n">
-        <v>195768.6884553103</v>
+        <v>224507.8761927513</v>
       </c>
       <c r="AE2" t="n">
-        <v>267859.3562494189</v>
+        <v>307181.5807952463</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.493687669632624e-06</v>
+        <v>6.299945614396762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.323784722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>242295.2352320204</v>
+        <v>277864.6018562953</v>
       </c>
     </row>
     <row r="3">
@@ -16576,28 +16576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.0938357519182</v>
+        <v>158.8329339808082</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.000125410668</v>
+        <v>217.3222274869469</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.0120432662686</v>
+        <v>196.5812991093169</v>
       </c>
       <c r="AD3" t="n">
-        <v>130093.8357519183</v>
+        <v>158832.9339808082</v>
       </c>
       <c r="AE3" t="n">
-        <v>178000.125410668</v>
+        <v>217322.2274869469</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.46469948129219e-06</v>
+        <v>8.050909690998207e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>161012.0432662686</v>
+        <v>196581.2991093169</v>
       </c>
     </row>
     <row r="4">
@@ -16682,28 +16682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.0511304845148</v>
+        <v>138.3527640613941</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.8910088940404</v>
+        <v>189.300355481889</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.344919624205</v>
+        <v>171.2337952394685</v>
       </c>
       <c r="AD4" t="n">
-        <v>119051.1304845148</v>
+        <v>138352.7640613941</v>
       </c>
       <c r="AE4" t="n">
-        <v>162891.0088940404</v>
+        <v>189300.355481889</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.792849955128697e-06</v>
+        <v>8.642642648834677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>147344.919624205</v>
+        <v>171233.7952394685</v>
       </c>
     </row>
     <row r="5">
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.3865624484353</v>
+        <v>132.5176038247225</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.1404970039759</v>
+        <v>181.3164318169777</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.334105711014</v>
+        <v>164.0118460436265</v>
       </c>
       <c r="AD5" t="n">
-        <v>113386.5624484353</v>
+        <v>132517.6038247225</v>
       </c>
       <c r="AE5" t="n">
-        <v>155140.4970039759</v>
+        <v>181316.4318169777</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.957688806242972e-06</v>
+        <v>8.93988610484996e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.457465277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>140334.105711014</v>
+        <v>164011.8460436265</v>
       </c>
     </row>
     <row r="6">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>109.0170962097857</v>
+        <v>128.1481375860729</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.1620005290129</v>
+        <v>175.3379353420147</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.9261885487471</v>
+        <v>158.6039288813595</v>
       </c>
       <c r="AD6" t="n">
-        <v>109017.0962097857</v>
+        <v>128148.1375860729</v>
       </c>
       <c r="AE6" t="n">
-        <v>149162.0005290129</v>
+        <v>175337.9353420147</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.071416413836947e-06</v>
+        <v>9.144963893836414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.357638888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>134926.1885487471</v>
+        <v>158603.9288813595</v>
       </c>
     </row>
     <row r="7">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>105.4589882544988</v>
+        <v>124.5900296307859</v>
       </c>
       <c r="AB7" t="n">
-        <v>144.2936402519474</v>
+        <v>170.4695750649492</v>
       </c>
       <c r="AC7" t="n">
-        <v>130.5224577437365</v>
+        <v>154.200198076349</v>
       </c>
       <c r="AD7" t="n">
-        <v>105458.9882544988</v>
+        <v>124590.029630786</v>
       </c>
       <c r="AE7" t="n">
-        <v>144293.6402519474</v>
+        <v>170469.5750649492</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.152766779519655e-06</v>
+        <v>9.291657853908192e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.288194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>130522.4577437365</v>
+        <v>154200.198076349</v>
       </c>
     </row>
     <row r="8">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>105.1791777149863</v>
+        <v>124.3102190912734</v>
       </c>
       <c r="AB8" t="n">
-        <v>143.9107911274167</v>
+        <v>170.0867259404185</v>
       </c>
       <c r="AC8" t="n">
-        <v>130.1761472023188</v>
+        <v>153.8538875349314</v>
       </c>
       <c r="AD8" t="n">
-        <v>105179.1777149863</v>
+        <v>124310.2190912734</v>
       </c>
       <c r="AE8" t="n">
-        <v>143910.7911274167</v>
+        <v>170086.7259404185</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.157552095148049e-06</v>
+        <v>9.300286910383002e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.283854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>130176.1472023189</v>
+        <v>153853.8875349314</v>
       </c>
     </row>
   </sheetData>
@@ -17403,28 +17403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.5895715801724</v>
+        <v>174.3447330786008</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.5703189113773</v>
+        <v>238.5461553448144</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.428169176743</v>
+        <v>215.7796450804062</v>
       </c>
       <c r="AD2" t="n">
-        <v>146589.5715801724</v>
+        <v>174344.7330786008</v>
       </c>
       <c r="AE2" t="n">
-        <v>200570.3189113773</v>
+        <v>238546.1553448144</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.083115976677669e-06</v>
+        <v>7.617789274110622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.635850694444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>181428.169176743</v>
+        <v>215779.6450804062</v>
       </c>
     </row>
     <row r="3">
@@ -17509,28 +17509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.1924714464644</v>
+        <v>136.8622920903212</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.401956664846</v>
+        <v>187.2610259760854</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.1432436077569</v>
+        <v>169.3890964794812</v>
       </c>
       <c r="AD3" t="n">
-        <v>109192.4714464644</v>
+        <v>136862.2920903212</v>
       </c>
       <c r="AE3" t="n">
-        <v>149401.956664846</v>
+        <v>187261.0259760854</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.93263827526174e-06</v>
+        <v>9.202726339635082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.665798611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>135143.2436077569</v>
+        <v>169389.0964794812</v>
       </c>
     </row>
     <row r="4">
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.9120244426717</v>
+        <v>119.3302140956034</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.0722837667227</v>
+        <v>163.2728634030316</v>
       </c>
       <c r="AC4" t="n">
-        <v>124.8948587897311</v>
+        <v>147.6903304747943</v>
       </c>
       <c r="AD4" t="n">
-        <v>100912.0244426717</v>
+        <v>119330.2140956034</v>
       </c>
       <c r="AE4" t="n">
-        <v>138072.2837667227</v>
+        <v>163272.8634030315</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.220054683396924e-06</v>
+        <v>9.738953486647724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>124894.8587897311</v>
+        <v>147690.3304747943</v>
       </c>
     </row>
     <row r="5">
@@ -17721,28 +17721,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.82563728996089</v>
+        <v>115.2438269428926</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.4811085857089</v>
+        <v>157.6816882220177</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.8372975207278</v>
+        <v>142.632769205791</v>
       </c>
       <c r="AD5" t="n">
-        <v>96825.6372899609</v>
+        <v>115243.8269428926</v>
       </c>
       <c r="AE5" t="n">
-        <v>132481.1085857089</v>
+        <v>157681.6882220177</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.329612303176867e-06</v>
+        <v>9.943352985859556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.318576388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>119837.2975207278</v>
+        <v>142632.769205791</v>
       </c>
     </row>
     <row r="6">
@@ -17827,28 +17827,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.63515955106038</v>
+        <v>115.053349203992</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.2204885400605</v>
+        <v>157.4210681763693</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.6015506864535</v>
+        <v>142.3970223715167</v>
       </c>
       <c r="AD6" t="n">
-        <v>96635.15955106038</v>
+        <v>115053.349203992</v>
       </c>
       <c r="AE6" t="n">
-        <v>132220.4885400605</v>
+        <v>157421.0681763694</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.349445095915347e-06</v>
+        <v>9.980354637701386e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.303385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>119601.5506864535</v>
+        <v>142397.0223715167</v>
       </c>
     </row>
   </sheetData>
@@ -33041,28 +33041,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.3168461561376</v>
+        <v>140.2505809576738</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.3593051491598</v>
+        <v>191.89703228515</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.3867679560304</v>
+        <v>173.5826488530859</v>
       </c>
       <c r="AD2" t="n">
-        <v>122316.8461561376</v>
+        <v>140250.5809576738</v>
       </c>
       <c r="AE2" t="n">
-        <v>167359.3051491598</v>
+        <v>191897.03228515</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.58134631971762e-06</v>
+        <v>8.810098865666901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.197482638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>151386.7679560304</v>
+        <v>173582.6488530858</v>
       </c>
     </row>
     <row r="3">
@@ -33147,28 +33147,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.39689583339367</v>
+        <v>112.2452897803583</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.1579973763244</v>
+        <v>153.578957390117</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.83133938115</v>
+        <v>138.9215972462667</v>
       </c>
       <c r="AD3" t="n">
-        <v>94396.89583339368</v>
+        <v>112245.2897803583</v>
       </c>
       <c r="AE3" t="n">
-        <v>129157.9973763244</v>
+        <v>153578.957390117</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.311478504154634e-06</v>
+        <v>1.021417013227481e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.483506944444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>116831.33938115</v>
+        <v>138921.5972462667</v>
       </c>
     </row>
     <row r="4">
@@ -33253,28 +33253,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.30515344393885</v>
+        <v>108.1535473909034</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.5594949241409</v>
+        <v>147.9804549379336</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.7671501454537</v>
+        <v>133.8574080105704</v>
       </c>
       <c r="AD4" t="n">
-        <v>90305.15344393885</v>
+        <v>108153.5473909034</v>
       </c>
       <c r="AE4" t="n">
-        <v>123559.4949241409</v>
+        <v>147980.4549379336</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.459150618392382e-06</v>
+        <v>1.049814908416877e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>111767.1501454537</v>
+        <v>133857.4080105704</v>
       </c>
     </row>
     <row r="5">
@@ -33359,28 +33359,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>90.73248580240758</v>
+        <v>108.5808797493722</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.1441899095707</v>
+        <v>148.5651499233633</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.2960426620987</v>
+        <v>134.3863005272154</v>
       </c>
       <c r="AD5" t="n">
-        <v>90732.48580240758</v>
+        <v>108580.8797493722</v>
       </c>
       <c r="AE5" t="n">
-        <v>124144.1899095707</v>
+        <v>148565.1499233633</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.458711771098957e-06</v>
+        <v>1.049730516454947e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>112296.0426620987</v>
+        <v>134386.3005272154</v>
       </c>
     </row>
   </sheetData>
@@ -33656,28 +33656,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.3647963793922</v>
+        <v>103.4856557751281</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.2221716170604</v>
+        <v>141.593639696389</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.98903804521839</v>
+        <v>128.0801414517252</v>
       </c>
       <c r="AD2" t="n">
-        <v>78364.79637939221</v>
+        <v>103485.6557751281</v>
       </c>
       <c r="AE2" t="n">
-        <v>107222.1716170604</v>
+        <v>141593.639696389</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.527384694023614e-06</v>
+        <v>1.140077991880392e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.622395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>96989.03804521839</v>
+        <v>128080.1414517252</v>
       </c>
     </row>
     <row r="3">
@@ -33762,28 +33762,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.59935464495884</v>
+        <v>95.48882899973547</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.5431045839888</v>
+        <v>130.6520285072039</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.27934162021555</v>
+        <v>118.1827822777848</v>
       </c>
       <c r="AD3" t="n">
-        <v>78599.35464495883</v>
+        <v>95488.82899973547</v>
       </c>
       <c r="AE3" t="n">
-        <v>107543.1045839888</v>
+        <v>130652.0285072039</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.543752535362968e-06</v>
+        <v>1.143454021724264e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>97279.34162021555</v>
+        <v>118182.7822777848</v>
       </c>
     </row>
   </sheetData>
@@ -34059,28 +34059,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.9768242224312</v>
+        <v>282.7075916415475</v>
       </c>
       <c r="AB2" t="n">
-        <v>346.1340514507806</v>
+        <v>386.8129990626675</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.0995033826137</v>
+        <v>349.8961093275796</v>
       </c>
       <c r="AD2" t="n">
-        <v>252976.8242224312</v>
+        <v>282707.5916415476</v>
       </c>
       <c r="AE2" t="n">
-        <v>346134.0514507806</v>
+        <v>386812.9990626675</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.011021448767112e-06</v>
+        <v>5.290245907384995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.098524305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>313099.5033826137</v>
+        <v>349896.1093275796</v>
       </c>
     </row>
     <row r="3">
@@ -34165,28 +34165,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.7991336906744</v>
+        <v>180.6196751396</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.0124686725937</v>
+        <v>247.1318079035753</v>
       </c>
       <c r="AC3" t="n">
-        <v>199.0147874519837</v>
+        <v>223.5458950090006</v>
       </c>
       <c r="AD3" t="n">
-        <v>160799.1336906744</v>
+        <v>180619.6751396</v>
       </c>
       <c r="AE3" t="n">
-        <v>220012.4686725937</v>
+        <v>247131.8079035753</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.081068513860762e-06</v>
+        <v>7.170276389777895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.236545138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>199014.7874519837</v>
+        <v>223545.8950090006</v>
       </c>
     </row>
     <row r="4">
@@ -34271,28 +34271,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>135.260080734294</v>
+        <v>164.9054177902842</v>
       </c>
       <c r="AB4" t="n">
-        <v>185.0688097141938</v>
+        <v>225.630867734146</v>
       </c>
       <c r="AC4" t="n">
-        <v>167.406102260829</v>
+        <v>204.0969743925758</v>
       </c>
       <c r="AD4" t="n">
-        <v>135260.080734294</v>
+        <v>164905.4177902841</v>
       </c>
       <c r="AE4" t="n">
-        <v>185068.8097141938</v>
+        <v>225630.867734146</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.466013661794784e-06</v>
+        <v>7.84660982946811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.78515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>167406.102260829</v>
+        <v>204096.9743925758</v>
       </c>
     </row>
     <row r="5">
@@ -34377,28 +34377,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.0503853228348</v>
+        <v>147.9561781177809</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.2041863829269</v>
+        <v>202.4401702665577</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.4829447352093</v>
+        <v>183.1195645429384</v>
       </c>
       <c r="AD5" t="n">
-        <v>128050.3853228348</v>
+        <v>147956.1781177809</v>
       </c>
       <c r="AE5" t="n">
-        <v>175204.1863829269</v>
+        <v>202440.1702665577</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.659027857228573e-06</v>
+        <v>8.185728156864583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.587673611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>158482.9447352093</v>
+        <v>183119.5645429384</v>
       </c>
     </row>
     <row r="6">
@@ -34483,28 +34483,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.4553792917204</v>
+        <v>143.1905798860743</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.9170964138003</v>
+        <v>195.9196685225842</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.7958858087478</v>
+        <v>177.2213703338261</v>
       </c>
       <c r="AD6" t="n">
-        <v>123455.3792917204</v>
+        <v>143190.5798860743</v>
       </c>
       <c r="AE6" t="n">
-        <v>168917.0964138003</v>
+        <v>195919.6685225842</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.783206888066332e-06</v>
+        <v>8.403905815459967e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.468315972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>152795.8858087478</v>
+        <v>177221.3703338261</v>
       </c>
     </row>
     <row r="7">
@@ -34589,28 +34589,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.2333454499796</v>
+        <v>139.9685460443336</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.5085675654319</v>
+        <v>191.5111396742158</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.8081007662573</v>
+        <v>173.2335852913355</v>
       </c>
       <c r="AD7" t="n">
-        <v>120233.3454499796</v>
+        <v>139968.5460443335</v>
       </c>
       <c r="AE7" t="n">
-        <v>164508.5675654319</v>
+        <v>191511.1396742158</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.854897874941739e-06</v>
+        <v>8.529864051350084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>148808.1007662573</v>
+        <v>173233.5852913354</v>
       </c>
     </row>
     <row r="8">
@@ -34695,28 +34695,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.8853636697707</v>
+        <v>136.6205642641247</v>
       </c>
       <c r="AB8" t="n">
-        <v>159.9277111912206</v>
+        <v>186.9302833000045</v>
       </c>
       <c r="AC8" t="n">
-        <v>144.6644348951269</v>
+        <v>169.0899194202051</v>
       </c>
       <c r="AD8" t="n">
-        <v>116885.3636697707</v>
+        <v>136620.5642641247</v>
       </c>
       <c r="AE8" t="n">
-        <v>159927.7111912206</v>
+        <v>186930.2833000045</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.922452843343565e-06</v>
+        <v>8.648555465938851e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.342447916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>144664.4348951269</v>
+        <v>169089.9194202051</v>
       </c>
     </row>
     <row r="9">
@@ -34801,28 +34801,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.5806131916449</v>
+        <v>134.3158137859988</v>
       </c>
       <c r="AB9" t="n">
-        <v>156.7742499086355</v>
+        <v>183.7768220174194</v>
       </c>
       <c r="AC9" t="n">
-        <v>141.81193553144</v>
+        <v>166.2374200565182</v>
       </c>
       <c r="AD9" t="n">
-        <v>114580.6131916449</v>
+        <v>134315.8137859988</v>
       </c>
       <c r="AE9" t="n">
-        <v>156774.2499086355</v>
+        <v>183776.8220174194</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.958495290041916e-06</v>
+        <v>8.711880622993499e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>141811.93553144</v>
+        <v>166237.4200565182</v>
       </c>
     </row>
     <row r="10">
@@ -34907,28 +34907,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.9624349819464</v>
+        <v>132.6976355763004</v>
       </c>
       <c r="AB10" t="n">
-        <v>154.5601870931428</v>
+        <v>181.5627592019268</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.8091797636006</v>
+        <v>164.2346642886788</v>
       </c>
       <c r="AD10" t="n">
-        <v>112962.4349819464</v>
+        <v>132697.6355763004</v>
       </c>
       <c r="AE10" t="n">
-        <v>154560.1870931428</v>
+        <v>181562.7592019268</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.990204765006039e-06</v>
+        <v>8.767592919637207e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.281684027777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>139809.1797636006</v>
+        <v>164234.6642886788</v>
       </c>
     </row>
     <row r="11">
@@ -35013,28 +35013,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.231646212096</v>
+        <v>132.9668468064499</v>
       </c>
       <c r="AB11" t="n">
-        <v>154.9285337749945</v>
+        <v>181.9311058837785</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.1423719551143</v>
+        <v>164.5678564801925</v>
       </c>
       <c r="AD11" t="n">
-        <v>113231.646212096</v>
+        <v>132966.8468064499</v>
       </c>
       <c r="AE11" t="n">
-        <v>154928.5337749945</v>
+        <v>181931.1058837785</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.986167223162781e-06</v>
+        <v>8.760499117890648e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.286024305555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>140142.3719551143</v>
+        <v>164567.8564801925</v>
       </c>
     </row>
   </sheetData>
@@ -35310,28 +35310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.2917684320632</v>
+        <v>387.2381441757047</v>
       </c>
       <c r="AB2" t="n">
-        <v>473.8116748833542</v>
+        <v>529.8363126024112</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.5917536313484</v>
+        <v>479.2694785575716</v>
       </c>
       <c r="AD2" t="n">
-        <v>346291.7684320632</v>
+        <v>387238.1441757047</v>
       </c>
       <c r="AE2" t="n">
-        <v>473811.6748833542</v>
+        <v>529836.3126024113</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.468509219248938e-06</v>
+        <v>4.220875668334923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.342013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>428591.7536313484</v>
+        <v>479269.4785575716</v>
       </c>
     </row>
     <row r="3">
@@ -35416,28 +35416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.3624683074858</v>
+        <v>222.136188624732</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.8305714544548</v>
+        <v>303.936533233213</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.8418291964332</v>
+        <v>274.9292570791285</v>
       </c>
       <c r="AD3" t="n">
-        <v>191362.4683074857</v>
+        <v>222136.188624732</v>
       </c>
       <c r="AE3" t="n">
-        <v>261830.5714544548</v>
+        <v>303936.5332332129</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.635245883634657e-06</v>
+        <v>6.21586534050568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>236841.8291964332</v>
+        <v>274929.2570791285</v>
       </c>
     </row>
     <row r="4">
@@ -35522,28 +35522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.286148328833</v>
+        <v>188.8020513822149</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.2565324042913</v>
+        <v>258.3272960596784</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.281172118765</v>
+        <v>233.6729014884552</v>
       </c>
       <c r="AD4" t="n">
-        <v>168286.148328833</v>
+        <v>188802.0513822149</v>
       </c>
       <c r="AE4" t="n">
-        <v>230256.5324042913</v>
+        <v>258327.2960596784</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.070530233332688e-06</v>
+        <v>6.960153069358649e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.05859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>208281.172118765</v>
+        <v>233672.9014884552</v>
       </c>
     </row>
     <row r="5">
@@ -35628,28 +35628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>147.7689994255901</v>
+        <v>178.4573788882648</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.1840641221613</v>
+        <v>244.1732587787218</v>
       </c>
       <c r="AC5" t="n">
-        <v>182.8879008095159</v>
+        <v>220.8697056602725</v>
       </c>
       <c r="AD5" t="n">
-        <v>147768.9994255901</v>
+        <v>178457.3788882648</v>
       </c>
       <c r="AE5" t="n">
-        <v>202184.0641221613</v>
+        <v>244173.2587787218</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.300840919340344e-06</v>
+        <v>7.353958676057177e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.787326388888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>182887.9008095159</v>
+        <v>220869.7056602725</v>
       </c>
     </row>
     <row r="6">
@@ -35734,28 +35734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.0696841566856</v>
+        <v>172.7580636193603</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.3860095352059</v>
+        <v>236.3752041917664</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.8340816076987</v>
+        <v>213.8158864584552</v>
       </c>
       <c r="AD6" t="n">
-        <v>142069.6841566856</v>
+        <v>172758.0636193603</v>
       </c>
       <c r="AE6" t="n">
-        <v>194386.0095352059</v>
+        <v>236375.2041917664</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.436066600247188e-06</v>
+        <v>7.585179520534066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.641927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>175834.0816076987</v>
+        <v>213815.8864584552</v>
       </c>
     </row>
     <row r="7">
@@ -35840,28 +35840,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.2126136074157</v>
+        <v>158.8137680068182</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.1085954477543</v>
+        <v>217.2960037557906</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.0603365138546</v>
+        <v>196.5575781342569</v>
       </c>
       <c r="AD7" t="n">
-        <v>138212.6136074157</v>
+        <v>158813.7680068182</v>
       </c>
       <c r="AE7" t="n">
-        <v>189108.5954477543</v>
+        <v>217296.0037557906</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.52469873075034e-06</v>
+        <v>7.736730586317513e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.55078125</v>
       </c>
       <c r="AH7" t="n">
-        <v>171060.3365138546</v>
+        <v>196557.5781342569</v>
       </c>
     </row>
     <row r="8">
@@ -35946,28 +35946,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.275998654751</v>
+        <v>155.7065608535613</v>
       </c>
       <c r="AB8" t="n">
-        <v>185.0905893152122</v>
+        <v>213.0445858484017</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.425803247294</v>
+        <v>192.7119095850454</v>
       </c>
       <c r="AD8" t="n">
-        <v>135275.998654751</v>
+        <v>155706.5608535613</v>
       </c>
       <c r="AE8" t="n">
-        <v>185090.5893152122</v>
+        <v>213044.5858484017</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.590840695376355e-06</v>
+        <v>7.849825974809015e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.485677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>167425.803247294</v>
+        <v>192711.9095850454</v>
       </c>
     </row>
     <row r="9">
@@ -36052,28 +36052,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.6839931513558</v>
+        <v>153.1145553501661</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.5440930342563</v>
+        <v>209.4980895674458</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.2177795938527</v>
+        <v>189.5038859316041</v>
       </c>
       <c r="AD9" t="n">
-        <v>132683.9931513558</v>
+        <v>153114.5553501661</v>
       </c>
       <c r="AE9" t="n">
-        <v>181544.0930342563</v>
+        <v>209498.0895674459</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.639237254858804e-06</v>
+        <v>7.932578698095481e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.437934027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>164217.7795938527</v>
+        <v>189503.885931604</v>
       </c>
     </row>
     <row r="10">
@@ -36158,28 +36158,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>130.2661042134941</v>
+        <v>150.6966664123043</v>
       </c>
       <c r="AB10" t="n">
-        <v>178.235830719744</v>
+        <v>206.1898272529335</v>
       </c>
       <c r="AC10" t="n">
-        <v>161.225253191461</v>
+        <v>186.5113595292123</v>
       </c>
       <c r="AD10" t="n">
-        <v>130266.1042134941</v>
+        <v>150696.6664123043</v>
       </c>
       <c r="AE10" t="n">
-        <v>178235.830719744</v>
+        <v>206189.8272529335</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.687633814341254e-06</v>
+        <v>8.015331421381945e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>161225.253191461</v>
+        <v>186511.3595292124</v>
       </c>
     </row>
     <row r="11">
@@ -36264,28 +36264,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>128.1333237766835</v>
+        <v>148.5638859754938</v>
       </c>
       <c r="AB11" t="n">
-        <v>175.3176664344691</v>
+        <v>203.2716629676586</v>
       </c>
       <c r="AC11" t="n">
-        <v>158.5855944099025</v>
+        <v>183.8717007476538</v>
       </c>
       <c r="AD11" t="n">
-        <v>128133.3237766835</v>
+        <v>148563.8859754938</v>
       </c>
       <c r="AE11" t="n">
-        <v>175317.6664344691</v>
+        <v>203271.6629676586</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.722270567696341e-06</v>
+        <v>8.074556409616377e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>158585.5944099025</v>
+        <v>183871.7007476538</v>
       </c>
     </row>
     <row r="12">
@@ -36370,28 +36370,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>126.0505760233922</v>
+        <v>146.4811382222025</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.4679590740712</v>
+        <v>200.4219556072608</v>
       </c>
       <c r="AC12" t="n">
-        <v>156.0078591203907</v>
+        <v>181.2939654581421</v>
       </c>
       <c r="AD12" t="n">
-        <v>126050.5760233922</v>
+        <v>146481.1382222025</v>
       </c>
       <c r="AE12" t="n">
-        <v>172467.9590740713</v>
+        <v>200421.9556072608</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.738118068546476e-06</v>
+        <v>8.10165386998665e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.346788194444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>156007.8591203908</v>
+        <v>181293.9654581421</v>
       </c>
     </row>
     <row r="13">
@@ -36476,28 +36476,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.068994498879</v>
+        <v>144.4995566976893</v>
       </c>
       <c r="AB13" t="n">
-        <v>169.7566718110267</v>
+        <v>197.7106683442162</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.5553333084147</v>
+        <v>178.8414396461661</v>
       </c>
       <c r="AD13" t="n">
-        <v>124068.994498879</v>
+        <v>144499.5566976893</v>
       </c>
       <c r="AE13" t="n">
-        <v>169756.6718110267</v>
+        <v>197710.6683442162</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.778068953923165e-06</v>
+        <v>8.169965431758417e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.309895833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>153555.3333084147</v>
+        <v>178841.4396461661</v>
       </c>
     </row>
     <row r="14">
@@ -36582,28 +36582,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>122.8562478716656</v>
+        <v>143.2868100704758</v>
       </c>
       <c r="AB14" t="n">
-        <v>168.0973383730689</v>
+        <v>196.0513349062584</v>
       </c>
       <c r="AC14" t="n">
-        <v>152.054364324886</v>
+        <v>177.3404706626374</v>
       </c>
       <c r="AD14" t="n">
-        <v>122856.2478716656</v>
+        <v>143286.8100704758</v>
       </c>
       <c r="AE14" t="n">
-        <v>168097.3383730689</v>
+        <v>196051.3349062584</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.790120646186441e-06</v>
+        <v>8.190572482459165e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.299045138888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>152054.364324886</v>
+        <v>177340.4706626374</v>
       </c>
     </row>
     <row r="15">
@@ -36688,28 +36688,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>123.0341980957438</v>
+        <v>143.4647602945541</v>
       </c>
       <c r="AB15" t="n">
-        <v>168.3408177202625</v>
+        <v>196.294814253452</v>
       </c>
       <c r="AC15" t="n">
-        <v>152.2746063449089</v>
+        <v>177.5607126826603</v>
       </c>
       <c r="AD15" t="n">
-        <v>123034.1980957438</v>
+        <v>143464.7602945541</v>
       </c>
       <c r="AE15" t="n">
-        <v>168340.8177202625</v>
+        <v>196294.814253452</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.791449179191842e-06</v>
+        <v>8.1928441258435e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH15" t="n">
-        <v>152274.6063449089</v>
+        <v>177560.7126826603</v>
       </c>
     </row>
     <row r="16">
@@ -36794,28 +36794,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>123.3869134781789</v>
+        <v>143.8174756769891</v>
       </c>
       <c r="AB16" t="n">
-        <v>168.8234184672144</v>
+        <v>196.7774150004039</v>
       </c>
       <c r="AC16" t="n">
-        <v>152.7111483539063</v>
+        <v>177.9972546916576</v>
       </c>
       <c r="AD16" t="n">
-        <v>123386.9134781789</v>
+        <v>143817.4756769892</v>
       </c>
       <c r="AE16" t="n">
-        <v>168823.4184672144</v>
+        <v>196777.4150004039</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.792018550479871e-06</v>
+        <v>8.193817687293929e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH16" t="n">
-        <v>152711.1483539063</v>
+        <v>177997.2546916576</v>
       </c>
     </row>
   </sheetData>
@@ -37091,28 +37091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.63420858239408</v>
+        <v>96.96265312806389</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.38132857752075</v>
+        <v>132.6685797001134</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.89651406067762</v>
+        <v>120.006876655091</v>
       </c>
       <c r="AD2" t="n">
-        <v>72634.20858239409</v>
+        <v>96962.65312806389</v>
       </c>
       <c r="AE2" t="n">
-        <v>99381.32857752075</v>
+        <v>132668.5797001134</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.379153337117906e-06</v>
+        <v>1.153000318816126e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.919704861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>89896.51406067761</v>
+        <v>120006.8766550911</v>
       </c>
     </row>
   </sheetData>
@@ -37388,28 +37388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.7892341580029</v>
+        <v>186.9239660832407</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.2624354614845</v>
+        <v>255.7576168983474</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.527213550846</v>
+        <v>231.3484688997135</v>
       </c>
       <c r="AD2" t="n">
-        <v>158789.2341580029</v>
+        <v>186923.9660832407</v>
       </c>
       <c r="AE2" t="n">
-        <v>217262.4354614845</v>
+        <v>255757.6168983474</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.87843425559076e-06</v>
+        <v>7.145753457762383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.848524305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>196527.213550846</v>
+        <v>231348.4688997135</v>
       </c>
     </row>
     <row r="3">
@@ -37494,28 +37494,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.0061645299132</v>
+        <v>145.0555556005794</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.0929962574253</v>
+        <v>198.4714105720905</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.8139453865921</v>
+        <v>179.5295777035208</v>
       </c>
       <c r="AD3" t="n">
-        <v>117006.1645299132</v>
+        <v>145055.5556005794</v>
       </c>
       <c r="AE3" t="n">
-        <v>160092.9962574253</v>
+        <v>198471.4105720905</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.738566670667882e-06</v>
+        <v>8.730489403798074e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.787326388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>144813.9453865921</v>
+        <v>179529.5777035208</v>
       </c>
     </row>
     <row r="4">
@@ -37600,28 +37600,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.2720398543838</v>
+        <v>125.9432764585217</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.7743374371001</v>
+        <v>172.3211470756929</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.7664006712195</v>
+        <v>155.8750586530856</v>
       </c>
       <c r="AD4" t="n">
-        <v>107272.0398543838</v>
+        <v>125943.2764585217</v>
       </c>
       <c r="AE4" t="n">
-        <v>146774.3374371002</v>
+        <v>172321.1470756929</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.054401440821352e-06</v>
+        <v>9.31239366004593e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>132766.4006712195</v>
+        <v>155875.0586530856</v>
       </c>
     </row>
     <row r="5">
@@ -37706,28 +37706,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.9268575859498</v>
+        <v>120.5980941900877</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.4608232446336</v>
+        <v>165.0076328832263</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.150878008698</v>
+        <v>149.2595359905641</v>
       </c>
       <c r="AD5" t="n">
-        <v>101926.8575859498</v>
+        <v>120598.0941900877</v>
       </c>
       <c r="AE5" t="n">
-        <v>139460.8232446336</v>
+        <v>165007.6328832263</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.21932111894914e-06</v>
+        <v>9.616247040707451e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.344618055555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>126150.878008698</v>
+        <v>149259.5359905641</v>
       </c>
     </row>
     <row r="6">
@@ -37812,28 +37812,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.64362257151321</v>
+        <v>118.3148591756512</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.3368003686633</v>
+        <v>161.883610007256</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.3250074914157</v>
+        <v>146.4336654732818</v>
       </c>
       <c r="AD6" t="n">
-        <v>99643.6225715132</v>
+        <v>118314.8591756511</v>
       </c>
       <c r="AE6" t="n">
-        <v>136336.8003686633</v>
+        <v>161883.610007256</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.281610173552538e-06</v>
+        <v>9.731010421489623e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.294704861111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>123325.0074914157</v>
+        <v>146433.6654732818</v>
       </c>
     </row>
     <row r="7">
@@ -37918,28 +37918,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>100.0539915845089</v>
+        <v>118.7252281886469</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.8982853564469</v>
+        <v>162.4450949950396</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.8329051400145</v>
+        <v>146.9415631218806</v>
       </c>
       <c r="AD7" t="n">
-        <v>100053.9915845089</v>
+        <v>118725.2281886469</v>
       </c>
       <c r="AE7" t="n">
-        <v>136898.2853564469</v>
+        <v>162445.0949950396</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.27805677110872e-06</v>
+        <v>9.724463517216815e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>123832.9051400145</v>
+        <v>146941.5631218806</v>
       </c>
     </row>
   </sheetData>
@@ -38215,28 +38215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.2906503287761</v>
+        <v>239.5172839060544</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.728945148427</v>
+        <v>327.7181145969122</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.2684984536566</v>
+        <v>296.4411576951429</v>
       </c>
       <c r="AD2" t="n">
-        <v>210290.650328776</v>
+        <v>239517.2839060544</v>
       </c>
       <c r="AE2" t="n">
-        <v>287728.945148427</v>
+        <v>327718.1145969122</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.326177264308918e-06</v>
+        <v>5.941972943990247e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.564670138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>260268.4984536566</v>
+        <v>296441.1576951429</v>
       </c>
     </row>
     <row r="3">
@@ -38321,28 +38321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.4347033080724</v>
+        <v>166.8623212984279</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.7266654260699</v>
+        <v>228.3083894464767</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.4741556030163</v>
+        <v>206.5189571906078</v>
       </c>
       <c r="AD3" t="n">
-        <v>147434.7033080724</v>
+        <v>166862.3212984279</v>
       </c>
       <c r="AE3" t="n">
-        <v>201726.6654260699</v>
+        <v>228308.3894464767</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.312982093419444e-06</v>
+        <v>7.704827755876512e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.062934027777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>182474.1556030163</v>
+        <v>206518.9571906078</v>
       </c>
     </row>
     <row r="4">
@@ -38427,28 +38427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.4855635080964</v>
+        <v>153.5415153762315</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.3266399071653</v>
+        <v>210.0822751112552</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.0709044494133</v>
+        <v>190.032317627022</v>
       </c>
       <c r="AD4" t="n">
-        <v>124485.5635080964</v>
+        <v>153541.5153762315</v>
       </c>
       <c r="AE4" t="n">
-        <v>170326.6399071653</v>
+        <v>210082.2751112552</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.680757320338886e-06</v>
+        <v>8.361831359164396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.665798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>154070.9044494133</v>
+        <v>190032.317627022</v>
       </c>
     </row>
     <row r="5">
@@ -38533,28 +38533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.2823690191879</v>
+        <v>137.6246461549718</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.8391555418184</v>
+        <v>188.3041124400275</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.3934536796333</v>
+        <v>170.332632235286</v>
       </c>
       <c r="AD5" t="n">
-        <v>118282.3690191879</v>
+        <v>137624.6461549718</v>
       </c>
       <c r="AE5" t="n">
-        <v>161839.1555418184</v>
+        <v>188304.1124400275</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.85533735281638e-06</v>
+        <v>8.673705846634845e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>146393.4536796333</v>
+        <v>170332.632235286</v>
       </c>
     </row>
     <row r="6">
@@ -38639,28 +38639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.9630354621465</v>
+        <v>133.3053125979304</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.9292528135296</v>
+        <v>182.3942097117387</v>
       </c>
       <c r="AC6" t="n">
-        <v>141.0475837731299</v>
+        <v>164.9867623287827</v>
       </c>
       <c r="AD6" t="n">
-        <v>113963.0354621465</v>
+        <v>133305.3125979304</v>
       </c>
       <c r="AE6" t="n">
-        <v>155929.2528135296</v>
+        <v>182394.2097117387</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.973065674429443e-06</v>
+        <v>8.884018901586097e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.390190972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>141047.5837731299</v>
+        <v>164986.7623287827</v>
       </c>
     </row>
     <row r="7">
@@ -38745,28 +38745,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.2694065763711</v>
+        <v>129.611683712155</v>
       </c>
       <c r="AB7" t="n">
-        <v>150.8754668206082</v>
+        <v>177.3404237188174</v>
       </c>
       <c r="AC7" t="n">
-        <v>136.4761240223381</v>
+        <v>160.4153025779909</v>
       </c>
       <c r="AD7" t="n">
-        <v>110269.4065763711</v>
+        <v>129611.683712155</v>
       </c>
       <c r="AE7" t="n">
-        <v>150875.4668206082</v>
+        <v>177340.4237188174</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.058292929477533e-06</v>
+        <v>9.036271172990976e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.31640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>136476.1240223381</v>
+        <v>160415.3025779909</v>
       </c>
     </row>
     <row r="8">
@@ -38851,28 +38851,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>107.5237189313616</v>
+        <v>126.8659960671455</v>
       </c>
       <c r="AB8" t="n">
-        <v>147.1186958535182</v>
+        <v>173.5836527517274</v>
       </c>
       <c r="AC8" t="n">
-        <v>133.0778940036849</v>
+        <v>157.0170725593376</v>
       </c>
       <c r="AD8" t="n">
-        <v>107523.7189313616</v>
+        <v>126865.9960671455</v>
       </c>
       <c r="AE8" t="n">
-        <v>147118.6958535182</v>
+        <v>173583.6527517274</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.101459980735655e-06</v>
+        <v>9.113385959806435e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.279513888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>133077.8940036849</v>
+        <v>157017.0725593376</v>
       </c>
     </row>
     <row r="9">
@@ -38957,28 +38957,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>107.7713422215313</v>
+        <v>127.1136193573152</v>
       </c>
       <c r="AB9" t="n">
-        <v>147.4575049634969</v>
+        <v>173.922461861706</v>
       </c>
       <c r="AC9" t="n">
-        <v>133.3843676477288</v>
+        <v>157.3235462033815</v>
       </c>
       <c r="AD9" t="n">
-        <v>107771.3422215313</v>
+        <v>127113.6193573152</v>
       </c>
       <c r="AE9" t="n">
-        <v>147457.5049634968</v>
+        <v>173922.461861706</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.100453755764605e-06</v>
+        <v>9.11158841232822e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.281684027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>133384.3676477288</v>
+        <v>157323.5462033815</v>
       </c>
     </row>
   </sheetData>
